--- a/Assignment6/Assignment6_data.xlsx
+++ b/Assignment6/Assignment6_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/EC527/Assignment6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968BE6CB-BB1E-084A-96E1-69488221C946}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBD41EC-B7D6-C040-9AEA-2263FF517E21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6660" yWindow="840" windowWidth="22460" windowHeight="15300" activeTab="3" xr2:uid="{D6ADFBF4-8A9F-164E-82A3-1A6061E9FFF8}"/>
+    <workbookView xWindow="2200" yWindow="980" windowWidth="22460" windowHeight="15300" activeTab="3" xr2:uid="{D6ADFBF4-8A9F-164E-82A3-1A6061E9FFF8}"/>
   </bookViews>
   <sheets>
     <sheet name="1b" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="43">
   <si>
     <t>OpenMP parallel loop tests</t>
   </si>
@@ -311,7 +311,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1b'!$B$132</c:f>
+              <c:f>'1b'!$I$132</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -351,133 +351,133 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>128</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>144</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>176</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>224</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>288</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>368</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>464</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>576</c:v>
+                  <c:v>458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>704</c:v>
+                  <c:v>586</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>848</c:v>
+                  <c:v>730</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1008</c:v>
+                  <c:v>890</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1184</c:v>
+                  <c:v>1066</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1376</c:v>
+                  <c:v>1258</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1584</c:v>
+                  <c:v>1466</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1808</c:v>
+                  <c:v>1690</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2048</c:v>
+                  <c:v>1930</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2304</c:v>
+                  <c:v>2186</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2576</c:v>
+                  <c:v>2458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2864</c:v>
+                  <c:v>2746</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3168</c:v>
+                  <c:v>3050</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1b'!$B$133:$B$152</c:f>
+              <c:f>'1b'!$I$133:$I$152</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1.1559999999999999E-3</c:v>
+                  <c:v>4.9309999999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3929999999999999E-3</c:v>
+                  <c:v>1.8265384615384617E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.081E-3</c:v>
+                  <c:v>3.9034482758620691E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3790000000000001E-3</c:v>
+                  <c:v>7.1632075471698113E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.5849999999999997E-3</c:v>
+                  <c:v>1.1547058823529411E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.1299999999999992E-3</c:v>
+                  <c:v>1.6988000000000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.448E-2</c:v>
+                  <c:v>2.344508670520231E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.2370000000000001E-2</c:v>
+                  <c:v>3.1091703056768555E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.3369999999999997E-2</c:v>
+                  <c:v>3.9744027303754266E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.8469999999999999E-2</c:v>
+                  <c:v>4.9424657534246574E-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.862E-2</c:v>
+                  <c:v>6.0325842696629216E-5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.4649999999999998E-2</c:v>
+                  <c:v>7.2204502814258913E-5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.1278</c:v>
+                  <c:v>8.5135135135135142E-5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.1699</c:v>
+                  <c:v>9.9454297407912696E-5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.22209999999999999</c:v>
+                  <c:v>1.1532544378698224E-4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.28539999999999999</c:v>
+                  <c:v>1.3191709844559586E-4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.36109999999999998</c:v>
+                  <c:v>1.4945105215004575E-4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.45140000000000002</c:v>
+                  <c:v>1.6826688364524005E-4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.55830000000000002</c:v>
+                  <c:v>1.8783685360524401E-4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.68330000000000002</c:v>
+                  <c:v>2.0862295081967212E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -494,7 +494,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1b'!$C$132</c:f>
+              <c:f>'1b'!$J$132</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -534,133 +534,133 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>128</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>144</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>176</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>224</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>288</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>368</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>464</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>576</c:v>
+                  <c:v>458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>704</c:v>
+                  <c:v>586</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>848</c:v>
+                  <c:v>730</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1008</c:v>
+                  <c:v>890</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1184</c:v>
+                  <c:v>1066</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1376</c:v>
+                  <c:v>1258</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1584</c:v>
+                  <c:v>1466</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1808</c:v>
+                  <c:v>1690</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2048</c:v>
+                  <c:v>1930</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2304</c:v>
+                  <c:v>2186</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2576</c:v>
+                  <c:v>2458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2864</c:v>
+                  <c:v>2746</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3168</c:v>
+                  <c:v>3050</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1b'!$C$133:$C$152</c:f>
+              <c:f>'1b'!$J$133:$J$152</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>6.7750000000000004E-4</c:v>
+                  <c:v>1.0139999999999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.9760000000000004E-4</c:v>
+                  <c:v>1.0642307692307693E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.052E-3</c:v>
+                  <c:v>2.1620689655172415E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6999999999999999E-3</c:v>
+                  <c:v>5.9018867924528303E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8019999999999998E-3</c:v>
+                  <c:v>5.8041176470588241E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.6080000000000001E-3</c:v>
+                  <c:v>8.4759999999999998E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.7629999999999999E-3</c:v>
+                  <c:v>1.1786127167630058E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.9270000000000001E-3</c:v>
+                  <c:v>1.5043668122270743E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.379E-2</c:v>
+                  <c:v>1.8003412969283279E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.8159999999999999E-2</c:v>
+                  <c:v>2.0575342465753423E-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.3099999999999999E-2</c:v>
+                  <c:v>2.2617977528089887E-5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.8369999999999999E-2</c:v>
+                  <c:v>2.4080675422138835E-5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.3959999999999997E-2</c:v>
+                  <c:v>2.4968203497615262E-5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.3229999999999998E-2</c:v>
+                  <c:v>2.5825375170532059E-5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.6410000000000002E-2</c:v>
+                  <c:v>2.9201183431952662E-5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.2260000000000005E-2</c:v>
+                  <c:v>3.3295336787564768E-5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.1380000000000003E-2</c:v>
+                  <c:v>3.7625800548947852E-5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.1142</c:v>
+                  <c:v>4.2270138323840521E-5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.1414</c:v>
+                  <c:v>4.7305171158048064E-5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.1734</c:v>
+                  <c:v>5.2721311475409835E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -677,7 +677,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1b'!$D$132</c:f>
+              <c:f>'1b'!$K$132</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -717,133 +717,133 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>128</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>144</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>176</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>224</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>288</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>368</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>464</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>576</c:v>
+                  <c:v>458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>704</c:v>
+                  <c:v>586</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>848</c:v>
+                  <c:v>730</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1008</c:v>
+                  <c:v>890</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1184</c:v>
+                  <c:v>1066</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1376</c:v>
+                  <c:v>1258</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1584</c:v>
+                  <c:v>1466</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1808</c:v>
+                  <c:v>1690</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2048</c:v>
+                  <c:v>1930</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2304</c:v>
+                  <c:v>2186</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2576</c:v>
+                  <c:v>2458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2864</c:v>
+                  <c:v>2746</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3168</c:v>
+                  <c:v>3050</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1b'!$D$133:$D$152</c:f>
+              <c:f>'1b'!$K$133:$K$152</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>3.3310000000000002E-4</c:v>
+                  <c:v>1.189E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.505E-4</c:v>
+                  <c:v>2.7473076923076921E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.856E-4</c:v>
+                  <c:v>7.0827586206896549E-7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.3669999999999998E-4</c:v>
+                  <c:v>1.5688679245283019E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.4970000000000005E-4</c:v>
+                  <c:v>2.2317647058823531E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.549E-3</c:v>
+                  <c:v>3.1155999999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.464E-3</c:v>
+                  <c:v>4.398843930635838E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.6830000000000001E-3</c:v>
+                  <c:v>5.8624454148471615E-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.4260000000000003E-3</c:v>
+                  <c:v>6.8668941979522178E-6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.9059999999999998E-3</c:v>
+                  <c:v>8.186301369863014E-6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.1730000000000001E-2</c:v>
+                  <c:v>9.9595505617977534E-6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.0899999999999998E-2</c:v>
+                  <c:v>1.3433395872420262E-5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.5650000000000001E-2</c:v>
+                  <c:v>2.0961844197138316E-5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.5320000000000001E-2</c:v>
+                  <c:v>2.9931787175989087E-5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.1199999999999994E-2</c:v>
+                  <c:v>3.9810650887573968E-5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.1142</c:v>
+                  <c:v>5.0626943005181347E-5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.15529999999999999</c:v>
+                  <c:v>6.2351326623970722E-5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.20610000000000001</c:v>
+                  <c:v>7.4938974776240852E-5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.2671</c:v>
+                  <c:v>8.8237436270939543E-5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.34029999999999999</c:v>
+                  <c:v>1.0242622950819672E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -860,7 +860,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1b'!$E$132</c:f>
+              <c:f>'1b'!$L$132</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -900,133 +900,133 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>128</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>144</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>176</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>224</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>288</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>368</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>464</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>576</c:v>
+                  <c:v>458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>704</c:v>
+                  <c:v>586</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>848</c:v>
+                  <c:v>730</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1008</c:v>
+                  <c:v>890</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1184</c:v>
+                  <c:v>1066</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1376</c:v>
+                  <c:v>1258</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1584</c:v>
+                  <c:v>1466</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1808</c:v>
+                  <c:v>1690</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2048</c:v>
+                  <c:v>1930</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2304</c:v>
+                  <c:v>2186</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2576</c:v>
+                  <c:v>2458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2864</c:v>
+                  <c:v>2746</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3168</c:v>
+                  <c:v>3050</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1b'!$E$133:$E$152</c:f>
+              <c:f>'1b'!$L$133:$L$152</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2.0469999999999999E-4</c:v>
+                  <c:v>6.1929999999999998E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3640000000000001E-4</c:v>
+                  <c:v>3.2403846153846156E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2440000000000001E-4</c:v>
+                  <c:v>4.6603448275862071E-7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.6410000000000001E-4</c:v>
+                  <c:v>1.1150943396226415E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.1399999999999996E-4</c:v>
+                  <c:v>1.3835294117647058E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.9419999999999999E-4</c:v>
+                  <c:v>1.9632000000000001E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5820000000000001E-3</c:v>
+                  <c:v>2.6898843930635837E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.4220000000000001E-3</c:v>
+                  <c:v>3.4737991266375546E-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.6210000000000001E-3</c:v>
+                  <c:v>4.3515358361774743E-6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.1200000000000004E-3</c:v>
+                  <c:v>5.3739726027397266E-6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.6220000000000003E-3</c:v>
+                  <c:v>6.4056179775280899E-6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.302E-2</c:v>
+                  <c:v>8.5863039399624762E-6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.2249999999999999E-2</c:v>
+                  <c:v>1.2909379968203499E-5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.4509999999999999E-2</c:v>
+                  <c:v>1.8697135061391542E-5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.9239999999999999E-2</c:v>
+                  <c:v>2.4792899408284024E-5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.0169999999999996E-2</c:v>
+                  <c:v>3.0507772020725388E-5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.5439999999999997E-2</c:v>
+                  <c:v>3.7909423604757546E-5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.12529999999999999</c:v>
+                  <c:v>4.5280716029292106E-5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.15970000000000001</c:v>
+                  <c:v>5.2621995630007282E-5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.20069999999999999</c:v>
+                  <c:v>6.0163934426229508E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1043,7 +1043,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1b'!$F$132</c:f>
+              <c:f>'1b'!$M$132</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1083,133 +1083,133 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>128</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>144</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>176</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>224</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>288</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>368</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>464</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>576</c:v>
+                  <c:v>458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>704</c:v>
+                  <c:v>586</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>848</c:v>
+                  <c:v>730</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1008</c:v>
+                  <c:v>890</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1184</c:v>
+                  <c:v>1066</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1376</c:v>
+                  <c:v>1258</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1584</c:v>
+                  <c:v>1466</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1808</c:v>
+                  <c:v>1690</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2048</c:v>
+                  <c:v>1930</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2304</c:v>
+                  <c:v>2186</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2576</c:v>
+                  <c:v>2458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2864</c:v>
+                  <c:v>2746</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3168</c:v>
+                  <c:v>3050</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1b'!$F$133:$F$152</c:f>
+              <c:f>'1b'!$M$133:$M$152</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2.8819999999999999E-5</c:v>
+                  <c:v>6.1700000000000003E-8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1399999999999998E-5</c:v>
+                  <c:v>4.7038461538461537E-8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5250000000000003E-5</c:v>
+                  <c:v>1.1074137931034484E-7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.1389999999999993E-5</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>1.039E-4</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
-                  <c:v>1.673E-4</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>2.7579999999999998E-4</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>4.7100000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>8.2410000000000003E-4</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>1.1839999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>1.6609999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>2.2799999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>3.1020000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
-                  <c:v>4.6080000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="General">
-                  <c:v>6.855E-3</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="General">
-                  <c:v>8.8170000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="General">
-                  <c:v>1.082E-2</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="General">
-                  <c:v>1.312E-2</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="General">
-                  <c:v>1.5699999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="General">
-                  <c:v>1.865E-2</c:v>
+                  <c:v>1.9330188679245282E-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8988235294117648E-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5439999999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.5057803468208091E-7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.1899563318777298E-7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.2218430034129695E-7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2293150684931507E-6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4820224719101124E-6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7570356472795498E-6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0580286168521466E-6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5607094133697134E-6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.2970414201183431E-6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0968911917098454E-6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.5882891125343093E-6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.9877949552481692E-6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.3896576839038606E-6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.8032786885245901E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1226,7 +1226,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1b'!$G$132</c:f>
+              <c:f>'1b'!$N$132</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1266,133 +1266,133 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>128</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>144</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>176</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>224</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>288</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>368</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>464</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>576</c:v>
+                  <c:v>458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>704</c:v>
+                  <c:v>586</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>848</c:v>
+                  <c:v>730</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1008</c:v>
+                  <c:v>890</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1184</c:v>
+                  <c:v>1066</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1376</c:v>
+                  <c:v>1258</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1584</c:v>
+                  <c:v>1466</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1808</c:v>
+                  <c:v>1690</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2048</c:v>
+                  <c:v>1930</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2304</c:v>
+                  <c:v>2186</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2576</c:v>
+                  <c:v>2458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2864</c:v>
+                  <c:v>2746</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3168</c:v>
+                  <c:v>3050</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1b'!$G$133:$G$152</c:f>
+              <c:f>'1b'!$N$133:$N$152</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>7.7260000000000002E-5</c:v>
+                  <c:v>5.2509999999999994E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1120000000000001E-5</c:v>
+                  <c:v>1.5926923076923076E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.8119999999999998E-5</c:v>
+                  <c:v>1.1924137931034483E-7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1539999999999999E-5</c:v>
+                  <c:v>1.2641509433962266E-7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0409999999999998E-5</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
-                  <c:v>1.158E-4</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>1.9100000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>2.6870000000000003E-4</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>3.8690000000000003E-4</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>5.7510000000000005E-4</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>7.7539999999999998E-4</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>1.0920000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>1.4829999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
-                  <c:v>2.0240000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="General">
-                  <c:v>2.7299999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="General">
-                  <c:v>3.6830000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="General">
-                  <c:v>5.1209999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="General">
-                  <c:v>7.2350000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="General">
-                  <c:v>9.7400000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="General">
-                  <c:v>1.256E-2</c:v>
+                  <c:v>1.6252941176470589E-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1551999999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7682080924855492E-7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.7510917030567686E-7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.3703071672354946E-7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.0726027397260271E-7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.3280898876404499E-7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.3621013133208249E-7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.7535771065182841E-7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1841746248294679E-6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3727810650887574E-6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6580310880829016E-6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.0681610247026532E-6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.5724165988608625E-6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.2228696285506193E-6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.7704918032786884E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1566,7 +1566,15 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" altLang="zh-TW"/>
-                  <a:t>Time (sec)</a:t>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+                  <a:t> per element</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t> (sec)</a:t>
                 </a:r>
                 <a:endParaRPr lang="zh-TW" altLang="en-US"/>
               </a:p>
@@ -1601,7 +1609,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1800,7 +1808,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1c_size'!$B$50</c:f>
+              <c:f>'1c_size'!$G$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1874,39 +1882,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1c_size'!$B$51:$B$60</c:f>
+              <c:f>'1c_size'!$G$51:$G$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5.5349999999999996E-4</c:v>
+                  <c:v>6.9187499999999996E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.8320000000000005E-4</c:v>
+                  <c:v>1.0241666666666667E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.441E-3</c:v>
+                  <c:v>1.90703125E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.3680000000000004E-3</c:v>
+                  <c:v>3.6181818181818186E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6559999999999998E-2</c:v>
+                  <c:v>6.8999999999999997E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1779999999999998E-2</c:v>
+                  <c:v>1.3056249999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.4060000000000005E-2</c:v>
+                  <c:v>2.2610576923076924E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1918</c:v>
+                  <c:v>3.6325757575757575E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.37519999999999998</c:v>
+                  <c:v>5.7195121951219511E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.67959999999999998</c:v>
+                  <c:v>8.4949999999999999E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1923,7 +1931,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1c_size'!$C$50</c:f>
+              <c:f>'1c_size'!$H$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1997,39 +2005,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1c_size'!$C$51:$C$60</c:f>
+              <c:f>'1c_size'!$H$51:$H$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.3139999999999998E-4</c:v>
+                  <c:v>4.1424999999999997E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0020000000000002E-4</c:v>
+                  <c:v>5.2104166666666668E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2869999999999999E-3</c:v>
+                  <c:v>1.00546875E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2230000000000002E-3</c:v>
+                  <c:v>1.8312500000000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.3750000000000005E-3</c:v>
+                  <c:v>3.4895833333333332E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8790000000000001E-2</c:v>
+                  <c:v>5.8718750000000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.5659999999999997E-2</c:v>
+                  <c:v>8.5721153846153835E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.7549999999999997E-2</c:v>
+                  <c:v>1.0899621212121211E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.12559999999999999</c:v>
+                  <c:v>1.9146341463414633E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.24049999999999999</c:v>
+                  <c:v>3.00625E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2046,7 +2054,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1c_size'!$D$50</c:f>
+              <c:f>'1c_size'!$I$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2120,39 +2128,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1c_size'!$D$51:$D$60</c:f>
+              <c:f>'1c_size'!$I$51:$I$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.5150000000000002E-4</c:v>
+                  <c:v>5.64375E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4139999999999999E-3</c:v>
+                  <c:v>1.4729166666666666E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3500000000000001E-3</c:v>
+                  <c:v>2.6171875000000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0929999999999995E-3</c:v>
+                  <c:v>4.5982954545454541E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7389999999999999E-2</c:v>
+                  <c:v>7.2458333333333324E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.4909999999999997E-2</c:v>
+                  <c:v>1.0909374999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.2330000000000003E-2</c:v>
+                  <c:v>1.4983173076923078E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.10929999999999999</c:v>
+                  <c:v>2.0700757575757575E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.20619999999999999</c:v>
+                  <c:v>3.143292682926829E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.37119999999999997</c:v>
+                  <c:v>4.6399999999999995E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2169,7 +2177,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1c_size'!$E$50</c:f>
+              <c:f>'1c_size'!$J$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2243,39 +2251,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1c_size'!$E$51:$E$60</c:f>
+              <c:f>'1c_size'!$J$51:$J$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.1900000000000001E-3</c:v>
+                  <c:v>1.4875000000000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8140000000000001E-3</c:v>
+                  <c:v>1.8895833333333333E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6440000000000001E-3</c:v>
+                  <c:v>2.8468750000000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.2170000000000003E-3</c:v>
+                  <c:v>4.6687500000000003E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0729999999999998E-2</c:v>
+                  <c:v>8.6374999999999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.918E-2</c:v>
+                  <c:v>1.2243749999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1036</c:v>
+                  <c:v>2.4903846153846151E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1404</c:v>
+                  <c:v>2.659090909090909E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.61619999999999997</c:v>
+                  <c:v>9.3932926829268292E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1140000000000001</c:v>
+                  <c:v>1.3925000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2449,7 +2457,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" altLang="zh-TW"/>
-                  <a:t>Time (sec)</a:t>
+                  <a:t>Time per element (sec)</a:t>
                 </a:r>
                 <a:endParaRPr lang="zh-TW" altLang="en-US"/>
               </a:p>
@@ -2687,7 +2695,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1c_middle'!$B$50</c:f>
+              <c:f>'1c_middle'!$G$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2761,39 +2769,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1c_middle'!$B$51:$B$60</c:f>
+              <c:f>'1c_middle'!$G$51:$G$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5.5179999999999997E-4</c:v>
+                  <c:v>6.8974999999999996E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.7710000000000006E-4</c:v>
+                  <c:v>1.0178125E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4229999999999998E-3</c:v>
+                  <c:v>1.8929687499999998E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.3530000000000001E-3</c:v>
+                  <c:v>3.6096590909090913E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6539999999999999E-2</c:v>
+                  <c:v>6.8916666666666657E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1489999999999999E-2</c:v>
+                  <c:v>1.2965625E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.4119999999999995E-2</c:v>
+                  <c:v>2.2625E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1918</c:v>
+                  <c:v>3.6325757575757575E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.37519999999999998</c:v>
+                  <c:v>5.7195121951219511E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.68159999999999998</c:v>
+                  <c:v>8.52E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2810,7 +2818,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1c_middle'!$C$50</c:f>
+              <c:f>'1c_middle'!$H$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2884,39 +2892,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1c_middle'!$C$51:$C$60</c:f>
+              <c:f>'1c_middle'!$H$51:$H$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.7239999999999999E-4</c:v>
+                  <c:v>5.9050000000000002E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.2329999999999996E-4</c:v>
+                  <c:v>7.5343749999999993E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4339999999999999E-3</c:v>
+                  <c:v>1.1203125E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4749999999999998E-3</c:v>
+                  <c:v>1.9744318181818179E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.5400000000000007E-3</c:v>
+                  <c:v>3.5583333333333335E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9009999999999999E-2</c:v>
+                  <c:v>5.9406249999999997E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.5819999999999998E-2</c:v>
+                  <c:v>8.6105769230769227E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.7729999999999997E-2</c:v>
+                  <c:v>1.0933712121212121E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.6320000000000003E-2</c:v>
+                  <c:v>1.4682926829268292E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.17419999999999999</c:v>
+                  <c:v>2.1774999999999998E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2933,7 +2941,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1c_middle'!$D$50</c:f>
+              <c:f>'1c_middle'!$I$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3007,39 +3015,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1c_middle'!$D$51:$D$60</c:f>
+              <c:f>'1c_middle'!$I$51:$I$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.4440000000000001E-4</c:v>
+                  <c:v>5.5550000000000002E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.4149999999999997E-4</c:v>
+                  <c:v>7.7239583333333325E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6770000000000001E-3</c:v>
+                  <c:v>1.3101562500000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.2100000000000002E-3</c:v>
+                  <c:v>2.3920454545454547E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0489999999999999E-2</c:v>
+                  <c:v>4.370833333333333E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4660000000000001E-2</c:v>
+                  <c:v>7.706250000000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.3600000000000002E-2</c:v>
+                  <c:v>1.2884615384615384E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.109</c:v>
+                  <c:v>2.0643939393939393E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.20580000000000001</c:v>
+                  <c:v>3.1371951219512199E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.37109999999999999</c:v>
+                  <c:v>4.6387499999999999E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3056,7 +3064,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1c_middle'!$E$50</c:f>
+              <c:f>'1c_middle'!$J$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3130,39 +3138,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1c_middle'!$E$51:$E$60</c:f>
+              <c:f>'1c_middle'!$J$51:$J$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6.9870000000000002E-4</c:v>
+                  <c:v>8.7337500000000009E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.4039999999999998E-4</c:v>
+                  <c:v>9.7958333333333337E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0300000000000001E-3</c:v>
+                  <c:v>1.5859375000000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0610000000000004E-3</c:v>
+                  <c:v>2.875568181818182E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.17E-2</c:v>
+                  <c:v>4.8749999999999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.418E-2</c:v>
+                  <c:v>7.55625E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.3409999999999997E-2</c:v>
+                  <c:v>1.0435096153846153E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.9570000000000007E-2</c:v>
+                  <c:v>1.3176136363636366E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.12330000000000001</c:v>
+                  <c:v>1.8795731707317074E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2225</c:v>
+                  <c:v>2.78125E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3336,7 +3344,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" altLang="zh-TW"/>
-                  <a:t>Time (sec)</a:t>
+                  <a:t>Time per element (sec)</a:t>
                 </a:r>
                 <a:endParaRPr lang="zh-TW" altLang="en-US"/>
               </a:p>
@@ -3574,7 +3582,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1c_inner'!$B$50</c:f>
+              <c:f>'1c_inner'!$G$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3648,39 +3656,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1c_inner'!$B$51:$B$60</c:f>
+              <c:f>'1c_inner'!$G$51:$G$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5.5400000000000002E-4</c:v>
+                  <c:v>6.9250000000000006E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.7490000000000001E-4</c:v>
+                  <c:v>1.0155208333333334E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.431E-3</c:v>
+                  <c:v>1.89921875E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.3470000000000002E-3</c:v>
+                  <c:v>3.6062500000000002E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6670000000000001E-2</c:v>
+                  <c:v>6.9458333333333332E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1529999999999997E-2</c:v>
+                  <c:v>1.2978124999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.2829999999999996E-2</c:v>
+                  <c:v>2.2314903846153844E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.18990000000000001</c:v>
+                  <c:v>3.5965909090909093E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.37159999999999999</c:v>
+                  <c:v>5.6646341463414637E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.67400000000000004</c:v>
+                  <c:v>8.4250000000000004E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3697,7 +3705,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1c_inner'!$C$50</c:f>
+              <c:f>'1c_inner'!$H$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3771,39 +3779,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1c_inner'!$C$51:$C$60</c:f>
+              <c:f>'1c_inner'!$H$51:$H$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7.4989999999999996E-3</c:v>
+                  <c:v>9.3737499999999995E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0489999999999999E-2</c:v>
+                  <c:v>1.0927083333333333E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7840000000000002E-2</c:v>
+                  <c:v>1.3937500000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2009999999999997E-2</c:v>
+                  <c:v>1.8187499999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.4159999999999995E-2</c:v>
+                  <c:v>2.6733333333333329E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1153</c:v>
+                  <c:v>3.6031250000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2114</c:v>
+                  <c:v>5.0817307692307696E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.34460000000000002</c:v>
+                  <c:v>6.5265151515151516E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.57299999999999995</c:v>
+                  <c:v>8.7347560975609747E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.94669999999999999</c:v>
+                  <c:v>1.183375E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3820,7 +3828,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1c_inner'!$D$50</c:f>
+              <c:f>'1c_inner'!$I$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3894,39 +3902,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1c_inner'!$D$51:$D$60</c:f>
+              <c:f>'1c_inner'!$I$51:$I$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.4260000000000002E-4</c:v>
+                  <c:v>5.5325E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.4209999999999999E-4</c:v>
+                  <c:v>7.7302083333333326E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6819999999999999E-3</c:v>
+                  <c:v>1.3140624999999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.2220000000000001E-3</c:v>
+                  <c:v>2.3988636363636365E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0489999999999999E-2</c:v>
+                  <c:v>4.370833333333333E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4629999999999999E-2</c:v>
+                  <c:v>7.6968749999999997E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.3539999999999997E-2</c:v>
+                  <c:v>1.2870192307692306E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1084</c:v>
+                  <c:v>2.0530303030303029E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.2049</c:v>
+                  <c:v>3.1234756097560975E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.36909999999999998</c:v>
+                  <c:v>4.6137499999999998E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3943,7 +3951,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1c_inner'!$E$50</c:f>
+              <c:f>'1c_inner'!$J$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4017,39 +4025,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1c_inner'!$E$51:$E$60</c:f>
+              <c:f>'1c_inner'!$J$51:$J$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9.0390000000000002E-3</c:v>
+                  <c:v>1.129875E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.333E-2</c:v>
+                  <c:v>1.3885416666666666E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.383E-2</c:v>
+                  <c:v>1.86171875E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.3180000000000003E-2</c:v>
+                  <c:v>2.4534090909090908E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.0210000000000004E-2</c:v>
+                  <c:v>3.3420833333333333E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15690000000000001</c:v>
+                  <c:v>4.9031250000000008E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.26069999999999999</c:v>
+                  <c:v>6.2668269230769223E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.46260000000000001</c:v>
+                  <c:v>8.7613636363636366E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.76080000000000003</c:v>
+                  <c:v>1.1597560975609756E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.288</c:v>
+                  <c:v>1.6100000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4223,7 +4231,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" altLang="zh-TW"/>
-                  <a:t>Time (sec)</a:t>
+                  <a:t>Time per element (sec)</a:t>
                 </a:r>
                 <a:endParaRPr lang="zh-TW" altLang="en-US"/>
               </a:p>
@@ -6552,16 +6560,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>711200</xdr:colOff>
       <xdr:row>136</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>150</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6593,16 +6601,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6634,16 +6642,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6675,16 +6683,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7009,13 +7017,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2194C0F6-AFAF-4E4F-8476-8708DF0678E2}">
-  <dimension ref="A1:G154"/>
+  <dimension ref="A1:N154"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="O147" sqref="O147"/>
+    <sheetView topLeftCell="G120" workbookViewId="0">
+      <selection activeCell="S117" sqref="S117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -7657,17 +7669,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:14">
       <c r="A129" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:14">
       <c r="A131" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:14">
       <c r="A132" t="s">
         <v>30</v>
       </c>
@@ -7689,468 +7701,966 @@
       <c r="G132" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="133" spans="1:7">
+      <c r="I132" t="s">
+        <v>31</v>
+      </c>
+      <c r="J132" t="s">
+        <v>32</v>
+      </c>
+      <c r="K132" t="s">
+        <v>33</v>
+      </c>
+      <c r="L132" t="s">
+        <v>34</v>
+      </c>
+      <c r="M132" t="s">
+        <v>35</v>
+      </c>
+      <c r="N132" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14">
       <c r="A133">
-        <v>128</v>
-      </c>
-      <c r="B133">
-        <v>1.1559999999999999E-3</v>
+        <v>10</v>
+      </c>
+      <c r="B133" s="1">
+        <v>4.9310000000000001E-5</v>
       </c>
       <c r="C133">
-        <v>6.7750000000000004E-4</v>
-      </c>
-      <c r="D133">
-        <v>3.3310000000000002E-4</v>
-      </c>
-      <c r="E133">
-        <v>2.0469999999999999E-4</v>
+        <v>1.014E-4</v>
+      </c>
+      <c r="D133" s="1">
+        <v>1.189E-5</v>
+      </c>
+      <c r="E133" s="1">
+        <v>6.1929999999999998E-5</v>
       </c>
       <c r="F133" s="1">
-        <v>2.8819999999999999E-5</v>
+        <v>6.1699999999999998E-7</v>
       </c>
       <c r="G133" s="1">
-        <v>7.7260000000000002E-5</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
+        <v>5.2509999999999997E-5</v>
+      </c>
+      <c r="I133" s="1">
+        <f>B133/A133</f>
+        <v>4.9309999999999999E-6</v>
+      </c>
+      <c r="J133">
+        <f>C133/A133</f>
+        <v>1.0139999999999999E-5</v>
+      </c>
+      <c r="K133" s="1">
+        <f>D133/A133</f>
+        <v>1.189E-6</v>
+      </c>
+      <c r="L133" s="1">
+        <f>E133/A133</f>
+        <v>6.1929999999999998E-6</v>
+      </c>
+      <c r="M133" s="1">
+        <f>F133/A133</f>
+        <v>6.1700000000000003E-8</v>
+      </c>
+      <c r="N133" s="1">
+        <f>G133/A133</f>
+        <v>5.2509999999999994E-6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14">
       <c r="A134">
-        <v>144</v>
-      </c>
-      <c r="B134">
-        <v>1.3929999999999999E-3</v>
-      </c>
-      <c r="C134">
-        <v>6.9760000000000004E-4</v>
-      </c>
-      <c r="D134">
-        <v>1.505E-4</v>
-      </c>
-      <c r="E134">
-        <v>1.3640000000000001E-4</v>
+        <v>26</v>
+      </c>
+      <c r="B134" s="1">
+        <v>4.7490000000000001E-5</v>
+      </c>
+      <c r="C134" s="1">
+        <v>2.7670000000000001E-5</v>
+      </c>
+      <c r="D134" s="1">
+        <v>7.1430000000000001E-6</v>
+      </c>
+      <c r="E134" s="1">
+        <v>8.4249999999999998E-6</v>
       </c>
       <c r="F134" s="1">
-        <v>2.1399999999999998E-5</v>
+        <v>1.223E-6</v>
       </c>
       <c r="G134" s="1">
-        <v>2.1120000000000001E-5</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
+        <v>4.1409999999999998E-6</v>
+      </c>
+      <c r="I134" s="1">
+        <f t="shared" ref="I134:I152" si="0">B134/A134</f>
+        <v>1.8265384615384617E-6</v>
+      </c>
+      <c r="J134">
+        <f t="shared" ref="J134:J152" si="1">C134/A134</f>
+        <v>1.0642307692307693E-6</v>
+      </c>
+      <c r="K134" s="1">
+        <f t="shared" ref="K134:K152" si="2">D134/A134</f>
+        <v>2.7473076923076921E-7</v>
+      </c>
+      <c r="L134" s="1">
+        <f t="shared" ref="L134:L152" si="3">E134/A134</f>
+        <v>3.2403846153846156E-7</v>
+      </c>
+      <c r="M134" s="1">
+        <f t="shared" ref="M134:M152" si="4">F134/A134</f>
+        <v>4.7038461538461537E-8</v>
+      </c>
+      <c r="N134" s="1">
+        <f t="shared" ref="N134:N152" si="5">G134/A134</f>
+        <v>1.5926923076923076E-7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14">
       <c r="A135">
-        <v>176</v>
+        <v>58</v>
       </c>
       <c r="B135">
-        <v>2.081E-3</v>
+        <v>2.264E-4</v>
       </c>
       <c r="C135">
-        <v>1.052E-3</v>
-      </c>
-      <c r="D135">
-        <v>2.856E-4</v>
-      </c>
-      <c r="E135">
-        <v>2.2440000000000001E-4</v>
+        <v>1.2540000000000001E-4</v>
+      </c>
+      <c r="D135" s="1">
+        <v>4.108E-5</v>
+      </c>
+      <c r="E135" s="1">
+        <v>2.703E-5</v>
       </c>
       <c r="F135" s="1">
-        <v>3.5250000000000003E-5</v>
+        <v>6.4230000000000002E-6</v>
       </c>
       <c r="G135" s="1">
-        <v>2.8119999999999998E-5</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
+        <v>6.9160000000000004E-6</v>
+      </c>
+      <c r="I135" s="1">
+        <f t="shared" si="0"/>
+        <v>3.9034482758620691E-6</v>
+      </c>
+      <c r="J135">
+        <f t="shared" si="1"/>
+        <v>2.1620689655172415E-6</v>
+      </c>
+      <c r="K135" s="1">
+        <f t="shared" si="2"/>
+        <v>7.0827586206896549E-7</v>
+      </c>
+      <c r="L135" s="1">
+        <f t="shared" si="3"/>
+        <v>4.6603448275862071E-7</v>
+      </c>
+      <c r="M135" s="1">
+        <f t="shared" si="4"/>
+        <v>1.1074137931034484E-7</v>
+      </c>
+      <c r="N135" s="1">
+        <f t="shared" si="5"/>
+        <v>1.1924137931034483E-7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14">
       <c r="A136">
-        <v>224</v>
+        <v>106</v>
       </c>
       <c r="B136">
-        <v>3.3790000000000001E-3</v>
+        <v>7.5929999999999997E-4</v>
       </c>
       <c r="C136">
-        <v>1.6999999999999999E-3</v>
+        <v>6.2560000000000003E-4</v>
       </c>
       <c r="D136">
-        <v>5.3669999999999998E-4</v>
+        <v>1.663E-4</v>
       </c>
       <c r="E136">
-        <v>3.6410000000000001E-4</v>
+        <v>1.182E-4</v>
       </c>
       <c r="F136" s="1">
-        <v>6.1389999999999993E-5</v>
+        <v>2.0489999999999999E-5</v>
       </c>
       <c r="G136" s="1">
-        <v>4.1539999999999999E-5</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
+        <v>1.34E-5</v>
+      </c>
+      <c r="I136" s="1">
+        <f t="shared" si="0"/>
+        <v>7.1632075471698113E-6</v>
+      </c>
+      <c r="J136">
+        <f t="shared" si="1"/>
+        <v>5.9018867924528303E-6</v>
+      </c>
+      <c r="K136" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5688679245283019E-6</v>
+      </c>
+      <c r="L136" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1150943396226415E-6</v>
+      </c>
+      <c r="M136" s="1">
+        <f t="shared" si="4"/>
+        <v>1.9330188679245282E-7</v>
+      </c>
+      <c r="N136" s="1">
+        <f t="shared" si="5"/>
+        <v>1.2641509433962266E-7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14">
       <c r="A137">
-        <v>288</v>
+        <v>170</v>
       </c>
       <c r="B137">
-        <v>5.5849999999999997E-3</v>
+        <v>1.9629999999999999E-3</v>
       </c>
       <c r="C137">
-        <v>2.8019999999999998E-3</v>
+        <v>9.8670000000000008E-4</v>
       </c>
       <c r="D137">
-        <v>9.4970000000000005E-4</v>
+        <v>3.7940000000000001E-4</v>
       </c>
       <c r="E137">
-        <v>6.1399999999999996E-4</v>
-      </c>
-      <c r="F137">
-        <v>1.039E-4</v>
+        <v>2.352E-4</v>
+      </c>
+      <c r="F137" s="1">
+        <v>4.9280000000000003E-5</v>
       </c>
       <c r="G137" s="1">
-        <v>7.0409999999999998E-5</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
+        <v>2.7630000000000001E-5</v>
+      </c>
+      <c r="I137" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1547058823529411E-5</v>
+      </c>
+      <c r="J137">
+        <f t="shared" si="1"/>
+        <v>5.8041176470588241E-6</v>
+      </c>
+      <c r="K137" s="1">
+        <f t="shared" si="2"/>
+        <v>2.2317647058823531E-6</v>
+      </c>
+      <c r="L137" s="1">
+        <f t="shared" si="3"/>
+        <v>1.3835294117647058E-6</v>
+      </c>
+      <c r="M137" s="1">
+        <f t="shared" si="4"/>
+        <v>2.8988235294117648E-7</v>
+      </c>
+      <c r="N137" s="1">
+        <f t="shared" si="5"/>
+        <v>1.6252941176470589E-7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14">
       <c r="A138">
-        <v>368</v>
+        <v>250</v>
       </c>
       <c r="B138">
-        <v>9.1299999999999992E-3</v>
+        <v>4.2469999999999999E-3</v>
       </c>
       <c r="C138">
-        <v>4.6080000000000001E-3</v>
+        <v>2.1189999999999998E-3</v>
       </c>
       <c r="D138">
-        <v>1.549E-3</v>
+        <v>7.7890000000000001E-4</v>
       </c>
       <c r="E138">
-        <v>9.9419999999999999E-4</v>
+        <v>4.908E-4</v>
       </c>
       <c r="F138">
-        <v>1.673E-4</v>
-      </c>
-      <c r="G138">
-        <v>1.158E-4</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
+        <v>1.136E-4</v>
+      </c>
+      <c r="G138" s="1">
+        <v>5.3879999999999999E-5</v>
+      </c>
+      <c r="I138" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6988000000000001E-5</v>
+      </c>
+      <c r="J138">
+        <f t="shared" si="1"/>
+        <v>8.4759999999999998E-6</v>
+      </c>
+      <c r="K138" s="1">
+        <f t="shared" si="2"/>
+        <v>3.1155999999999999E-6</v>
+      </c>
+      <c r="L138" s="1">
+        <f t="shared" si="3"/>
+        <v>1.9632000000000001E-6</v>
+      </c>
+      <c r="M138" s="1">
+        <f t="shared" si="4"/>
+        <v>4.5439999999999999E-7</v>
+      </c>
+      <c r="N138" s="1">
+        <f t="shared" si="5"/>
+        <v>2.1551999999999999E-7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14">
       <c r="A139">
-        <v>464</v>
+        <v>346</v>
       </c>
       <c r="B139">
-        <v>1.448E-2</v>
+        <v>8.1119999999999994E-3</v>
       </c>
       <c r="C139">
-        <v>6.7629999999999999E-3</v>
+        <v>4.078E-3</v>
       </c>
       <c r="D139">
-        <v>2.464E-3</v>
+        <v>1.5219999999999999E-3</v>
       </c>
       <c r="E139">
-        <v>1.5820000000000001E-3</v>
+        <v>9.3070000000000002E-4</v>
       </c>
       <c r="F139">
-        <v>2.7579999999999998E-4</v>
-      </c>
-      <c r="G139">
-        <v>1.9100000000000001E-4</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
+        <v>2.251E-4</v>
+      </c>
+      <c r="G139" s="1">
+        <v>9.5779999999999994E-5</v>
+      </c>
+      <c r="I139" s="1">
+        <f t="shared" si="0"/>
+        <v>2.344508670520231E-5</v>
+      </c>
+      <c r="J139">
+        <f t="shared" si="1"/>
+        <v>1.1786127167630058E-5</v>
+      </c>
+      <c r="K139" s="1">
+        <f t="shared" si="2"/>
+        <v>4.398843930635838E-6</v>
+      </c>
+      <c r="L139" s="1">
+        <f t="shared" si="3"/>
+        <v>2.6898843930635837E-6</v>
+      </c>
+      <c r="M139" s="1">
+        <f t="shared" si="4"/>
+        <v>6.5057803468208091E-7</v>
+      </c>
+      <c r="N139" s="1">
+        <f t="shared" si="5"/>
+        <v>2.7682080924855492E-7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14">
       <c r="A140">
-        <v>576</v>
+        <v>458</v>
       </c>
       <c r="B140">
-        <v>2.2370000000000001E-2</v>
+        <v>1.4239999999999999E-2</v>
       </c>
       <c r="C140">
-        <v>9.9270000000000001E-3</v>
+        <v>6.8900000000000003E-3</v>
       </c>
       <c r="D140">
-        <v>3.6830000000000001E-3</v>
+        <v>2.6849999999999999E-3</v>
       </c>
       <c r="E140">
-        <v>2.4220000000000001E-3</v>
+        <v>1.591E-3</v>
       </c>
       <c r="F140">
-        <v>4.7100000000000001E-4</v>
+        <v>2.8350000000000001E-4</v>
       </c>
       <c r="G140">
-        <v>2.6870000000000003E-4</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
+        <v>1.718E-4</v>
+      </c>
+      <c r="I140" s="1">
+        <f t="shared" si="0"/>
+        <v>3.1091703056768555E-5</v>
+      </c>
+      <c r="J140">
+        <f t="shared" si="1"/>
+        <v>1.5043668122270743E-5</v>
+      </c>
+      <c r="K140" s="1">
+        <f t="shared" si="2"/>
+        <v>5.8624454148471615E-6</v>
+      </c>
+      <c r="L140" s="1">
+        <f t="shared" si="3"/>
+        <v>3.4737991266375546E-6</v>
+      </c>
+      <c r="M140" s="1">
+        <f t="shared" si="4"/>
+        <v>6.1899563318777298E-7</v>
+      </c>
+      <c r="N140" s="1">
+        <f t="shared" si="5"/>
+        <v>3.7510917030567686E-7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14">
       <c r="A141">
-        <v>704</v>
+        <v>586</v>
       </c>
       <c r="B141">
-        <v>3.3369999999999997E-2</v>
+        <v>2.3290000000000002E-2</v>
       </c>
       <c r="C141">
-        <v>1.379E-2</v>
+        <v>1.055E-2</v>
       </c>
       <c r="D141">
-        <v>5.4260000000000003E-3</v>
+        <v>4.0239999999999998E-3</v>
       </c>
       <c r="E141">
-        <v>3.6210000000000001E-3</v>
+        <v>2.5500000000000002E-3</v>
       </c>
       <c r="F141">
-        <v>8.2410000000000003E-4</v>
+        <v>4.818E-4</v>
       </c>
       <c r="G141">
-        <v>3.8690000000000003E-4</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
+        <v>3.1470000000000001E-4</v>
+      </c>
+      <c r="I141" s="1">
+        <f t="shared" si="0"/>
+        <v>3.9744027303754266E-5</v>
+      </c>
+      <c r="J141">
+        <f t="shared" si="1"/>
+        <v>1.8003412969283279E-5</v>
+      </c>
+      <c r="K141" s="1">
+        <f t="shared" si="2"/>
+        <v>6.8668941979522178E-6</v>
+      </c>
+      <c r="L141" s="1">
+        <f t="shared" si="3"/>
+        <v>4.3515358361774743E-6</v>
+      </c>
+      <c r="M141" s="1">
+        <f t="shared" si="4"/>
+        <v>8.2218430034129695E-7</v>
+      </c>
+      <c r="N141" s="1">
+        <f t="shared" si="5"/>
+        <v>5.3703071672354946E-7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14">
       <c r="A142">
-        <v>848</v>
+        <v>730</v>
       </c>
       <c r="B142">
-        <v>4.8469999999999999E-2</v>
+        <v>3.6080000000000001E-2</v>
       </c>
       <c r="C142">
-        <v>1.8159999999999999E-2</v>
+        <v>1.502E-2</v>
       </c>
       <c r="D142">
-        <v>7.9059999999999998E-3</v>
+        <v>5.9760000000000004E-3</v>
       </c>
       <c r="E142">
-        <v>5.1200000000000004E-3</v>
+        <v>3.9230000000000003E-3</v>
       </c>
       <c r="F142">
-        <v>1.1839999999999999E-3</v>
+        <v>8.9740000000000002E-4</v>
       </c>
       <c r="G142">
-        <v>5.7510000000000005E-4</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
+        <v>4.4329999999999999E-4</v>
+      </c>
+      <c r="I142" s="1">
+        <f t="shared" si="0"/>
+        <v>4.9424657534246574E-5</v>
+      </c>
+      <c r="J142">
+        <f t="shared" si="1"/>
+        <v>2.0575342465753423E-5</v>
+      </c>
+      <c r="K142" s="1">
+        <f t="shared" si="2"/>
+        <v>8.186301369863014E-6</v>
+      </c>
+      <c r="L142" s="1">
+        <f t="shared" si="3"/>
+        <v>5.3739726027397266E-6</v>
+      </c>
+      <c r="M142" s="1">
+        <f t="shared" si="4"/>
+        <v>1.2293150684931507E-6</v>
+      </c>
+      <c r="N142" s="1">
+        <f t="shared" si="5"/>
+        <v>6.0726027397260271E-7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14">
       <c r="A143">
-        <v>1008</v>
+        <v>890</v>
       </c>
       <c r="B143">
-        <v>6.862E-2</v>
+        <v>5.3690000000000002E-2</v>
       </c>
       <c r="C143">
-        <v>2.3099999999999999E-2</v>
+        <v>2.0129999999999999E-2</v>
       </c>
       <c r="D143">
-        <v>1.1730000000000001E-2</v>
+        <v>8.8640000000000004E-3</v>
       </c>
       <c r="E143">
-        <v>7.6220000000000003E-3</v>
+        <v>5.7010000000000003E-3</v>
       </c>
       <c r="F143">
-        <v>1.6609999999999999E-3</v>
+        <v>1.3190000000000001E-3</v>
       </c>
       <c r="G143">
-        <v>7.7539999999999998E-4</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7">
+        <v>6.5220000000000002E-4</v>
+      </c>
+      <c r="I143" s="1">
+        <f t="shared" si="0"/>
+        <v>6.0325842696629216E-5</v>
+      </c>
+      <c r="J143">
+        <f t="shared" si="1"/>
+        <v>2.2617977528089887E-5</v>
+      </c>
+      <c r="K143" s="1">
+        <f t="shared" si="2"/>
+        <v>9.9595505617977534E-6</v>
+      </c>
+      <c r="L143" s="1">
+        <f t="shared" si="3"/>
+        <v>6.4056179775280899E-6</v>
+      </c>
+      <c r="M143" s="1">
+        <f t="shared" si="4"/>
+        <v>1.4820224719101124E-6</v>
+      </c>
+      <c r="N143" s="1">
+        <f t="shared" si="5"/>
+        <v>7.3280898876404499E-7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14">
       <c r="A144">
-        <v>1184</v>
+        <v>1066</v>
       </c>
       <c r="B144">
-        <v>9.4649999999999998E-2</v>
+        <v>7.6969999999999997E-2</v>
       </c>
       <c r="C144">
-        <v>2.8369999999999999E-2</v>
+        <v>2.5669999999999998E-2</v>
       </c>
       <c r="D144">
-        <v>2.0899999999999998E-2</v>
+        <v>1.4319999999999999E-2</v>
       </c>
       <c r="E144">
-        <v>1.302E-2</v>
+        <v>9.1529999999999997E-3</v>
       </c>
       <c r="F144">
-        <v>2.2799999999999999E-3</v>
+        <v>1.8730000000000001E-3</v>
       </c>
       <c r="G144">
-        <v>1.0920000000000001E-3</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
+        <v>8.9139999999999998E-4</v>
+      </c>
+      <c r="I144" s="1">
+        <f t="shared" si="0"/>
+        <v>7.2204502814258913E-5</v>
+      </c>
+      <c r="J144">
+        <f t="shared" si="1"/>
+        <v>2.4080675422138835E-5</v>
+      </c>
+      <c r="K144" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3433395872420262E-5</v>
+      </c>
+      <c r="L144" s="1">
+        <f t="shared" si="3"/>
+        <v>8.5863039399624762E-6</v>
+      </c>
+      <c r="M144" s="1">
+        <f t="shared" si="4"/>
+        <v>1.7570356472795498E-6</v>
+      </c>
+      <c r="N144" s="1">
+        <f t="shared" si="5"/>
+        <v>8.3621013133208249E-7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14">
       <c r="A145">
-        <v>1376</v>
+        <v>1258</v>
       </c>
       <c r="B145">
-        <v>0.1278</v>
+        <v>0.1071</v>
       </c>
       <c r="C145">
-        <v>3.3959999999999997E-2</v>
+        <v>3.141E-2</v>
       </c>
       <c r="D145">
-        <v>3.5650000000000001E-2</v>
+        <v>2.6370000000000001E-2</v>
       </c>
       <c r="E145">
-        <v>2.2249999999999999E-2</v>
+        <v>1.6240000000000001E-2</v>
       </c>
       <c r="F145">
-        <v>3.1020000000000002E-3</v>
+        <v>2.5890000000000002E-3</v>
       </c>
       <c r="G145">
-        <v>1.4829999999999999E-3</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
+        <v>1.227E-3</v>
+      </c>
+      <c r="I145" s="1">
+        <f t="shared" si="0"/>
+        <v>8.5135135135135142E-5</v>
+      </c>
+      <c r="J145">
+        <f t="shared" si="1"/>
+        <v>2.4968203497615262E-5</v>
+      </c>
+      <c r="K145" s="1">
+        <f t="shared" si="2"/>
+        <v>2.0961844197138316E-5</v>
+      </c>
+      <c r="L145" s="1">
+        <f t="shared" si="3"/>
+        <v>1.2909379968203499E-5</v>
+      </c>
+      <c r="M145" s="1">
+        <f t="shared" si="4"/>
+        <v>2.0580286168521466E-6</v>
+      </c>
+      <c r="N145" s="1">
+        <f t="shared" si="5"/>
+        <v>9.7535771065182841E-7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14">
       <c r="A146">
-        <v>1584</v>
+        <v>1466</v>
       </c>
       <c r="B146">
-        <v>0.1699</v>
+        <v>0.14580000000000001</v>
       </c>
       <c r="C146">
-        <v>4.3229999999999998E-2</v>
+        <v>3.7859999999999998E-2</v>
       </c>
       <c r="D146">
-        <v>5.5320000000000001E-2</v>
+        <v>4.3880000000000002E-2</v>
       </c>
       <c r="E146">
-        <v>3.4509999999999999E-2</v>
+        <v>2.741E-2</v>
       </c>
       <c r="F146">
-        <v>4.6080000000000001E-3</v>
+        <v>3.754E-3</v>
       </c>
       <c r="G146">
-        <v>2.0240000000000002E-3</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7">
+        <v>1.7359999999999999E-3</v>
+      </c>
+      <c r="I146" s="1">
+        <f t="shared" si="0"/>
+        <v>9.9454297407912696E-5</v>
+      </c>
+      <c r="J146">
+        <f t="shared" si="1"/>
+        <v>2.5825375170532059E-5</v>
+      </c>
+      <c r="K146" s="1">
+        <f t="shared" si="2"/>
+        <v>2.9931787175989087E-5</v>
+      </c>
+      <c r="L146" s="1">
+        <f t="shared" si="3"/>
+        <v>1.8697135061391542E-5</v>
+      </c>
+      <c r="M146" s="1">
+        <f t="shared" si="4"/>
+        <v>2.5607094133697134E-6</v>
+      </c>
+      <c r="N146" s="1">
+        <f t="shared" si="5"/>
+        <v>1.1841746248294679E-6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14">
       <c r="A147">
-        <v>1808</v>
+        <v>1690</v>
       </c>
       <c r="B147">
-        <v>0.22209999999999999</v>
+        <v>0.19489999999999999</v>
       </c>
       <c r="C147">
-        <v>5.6410000000000002E-2</v>
+        <v>4.9349999999999998E-2</v>
       </c>
       <c r="D147">
-        <v>8.1199999999999994E-2</v>
+        <v>6.7280000000000006E-2</v>
       </c>
       <c r="E147">
-        <v>4.9239999999999999E-2</v>
+        <v>4.19E-2</v>
       </c>
       <c r="F147">
-        <v>6.855E-3</v>
+        <v>5.5719999999999997E-3</v>
       </c>
       <c r="G147">
-        <v>2.7299999999999998E-3</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7">
+        <v>2.32E-3</v>
+      </c>
+      <c r="I147" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1532544378698224E-4</v>
+      </c>
+      <c r="J147">
+        <f t="shared" si="1"/>
+        <v>2.9201183431952662E-5</v>
+      </c>
+      <c r="K147" s="1">
+        <f t="shared" si="2"/>
+        <v>3.9810650887573968E-5</v>
+      </c>
+      <c r="L147" s="1">
+        <f t="shared" si="3"/>
+        <v>2.4792899408284024E-5</v>
+      </c>
+      <c r="M147" s="1">
+        <f t="shared" si="4"/>
+        <v>3.2970414201183431E-6</v>
+      </c>
+      <c r="N147" s="1">
+        <f t="shared" si="5"/>
+        <v>1.3727810650887574E-6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14">
       <c r="A148">
-        <v>2048</v>
+        <v>1930</v>
       </c>
       <c r="B148">
-        <v>0.28539999999999999</v>
+        <v>0.25459999999999999</v>
       </c>
       <c r="C148">
-        <v>7.2260000000000005E-2</v>
+        <v>6.4259999999999998E-2</v>
       </c>
       <c r="D148">
-        <v>0.1142</v>
+        <v>9.7710000000000005E-2</v>
       </c>
       <c r="E148">
-        <v>7.0169999999999996E-2</v>
+        <v>5.8880000000000002E-2</v>
       </c>
       <c r="F148">
-        <v>8.8170000000000002E-3</v>
+        <v>7.9070000000000008E-3</v>
       </c>
       <c r="G148">
-        <v>3.6830000000000001E-3</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="I148" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3191709844559586E-4</v>
+      </c>
+      <c r="J148">
+        <f t="shared" si="1"/>
+        <v>3.3295336787564768E-5</v>
+      </c>
+      <c r="K148" s="1">
+        <f t="shared" si="2"/>
+        <v>5.0626943005181347E-5</v>
+      </c>
+      <c r="L148" s="1">
+        <f t="shared" si="3"/>
+        <v>3.0507772020725388E-5</v>
+      </c>
+      <c r="M148" s="1">
+        <f t="shared" si="4"/>
+        <v>4.0968911917098454E-6</v>
+      </c>
+      <c r="N148" s="1">
+        <f t="shared" si="5"/>
+        <v>1.6580310880829016E-6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14">
       <c r="A149">
-        <v>2304</v>
+        <v>2186</v>
       </c>
       <c r="B149">
-        <v>0.36109999999999998</v>
+        <v>0.32669999999999999</v>
       </c>
       <c r="C149">
-        <v>9.1380000000000003E-2</v>
+        <v>8.2250000000000004E-2</v>
       </c>
       <c r="D149">
-        <v>0.15529999999999999</v>
+        <v>0.1363</v>
       </c>
       <c r="E149">
-        <v>9.5439999999999997E-2</v>
+        <v>8.2869999999999999E-2</v>
       </c>
       <c r="F149">
-        <v>1.082E-2</v>
+        <v>1.0030000000000001E-2</v>
       </c>
       <c r="G149">
-        <v>5.1209999999999997E-3</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7">
+        <v>4.5209999999999998E-3</v>
+      </c>
+      <c r="I149" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4945105215004575E-4</v>
+      </c>
+      <c r="J149">
+        <f t="shared" si="1"/>
+        <v>3.7625800548947852E-5</v>
+      </c>
+      <c r="K149" s="1">
+        <f t="shared" si="2"/>
+        <v>6.2351326623970722E-5</v>
+      </c>
+      <c r="L149" s="1">
+        <f t="shared" si="3"/>
+        <v>3.7909423604757546E-5</v>
+      </c>
+      <c r="M149" s="1">
+        <f t="shared" si="4"/>
+        <v>4.5882891125343093E-6</v>
+      </c>
+      <c r="N149" s="1">
+        <f t="shared" si="5"/>
+        <v>2.0681610247026532E-6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14">
       <c r="A150">
-        <v>2576</v>
+        <v>2458</v>
       </c>
       <c r="B150">
-        <v>0.45140000000000002</v>
+        <v>0.41360000000000002</v>
       </c>
       <c r="C150">
-        <v>0.1142</v>
+        <v>0.10390000000000001</v>
       </c>
       <c r="D150">
-        <v>0.20610000000000001</v>
+        <v>0.1842</v>
       </c>
       <c r="E150">
-        <v>0.12529999999999999</v>
+        <v>0.1113</v>
       </c>
       <c r="F150">
-        <v>1.312E-2</v>
+        <v>1.226E-2</v>
       </c>
       <c r="G150">
-        <v>7.2350000000000001E-3</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7">
+        <v>6.3229999999999996E-3</v>
+      </c>
+      <c r="I150" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6826688364524005E-4</v>
+      </c>
+      <c r="J150">
+        <f t="shared" si="1"/>
+        <v>4.2270138323840521E-5</v>
+      </c>
+      <c r="K150" s="1">
+        <f t="shared" si="2"/>
+        <v>7.4938974776240852E-5</v>
+      </c>
+      <c r="L150" s="1">
+        <f t="shared" si="3"/>
+        <v>4.5280716029292106E-5</v>
+      </c>
+      <c r="M150" s="1">
+        <f t="shared" si="4"/>
+        <v>4.9877949552481692E-6</v>
+      </c>
+      <c r="N150" s="1">
+        <f t="shared" si="5"/>
+        <v>2.5724165988608625E-6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14">
       <c r="A151">
-        <v>2864</v>
+        <v>2746</v>
       </c>
       <c r="B151">
-        <v>0.55830000000000002</v>
+        <v>0.51580000000000004</v>
       </c>
       <c r="C151">
-        <v>0.1414</v>
+        <v>0.12989999999999999</v>
       </c>
       <c r="D151">
-        <v>0.2671</v>
+        <v>0.24229999999999999</v>
       </c>
       <c r="E151">
-        <v>0.15970000000000001</v>
+        <v>0.14449999999999999</v>
       </c>
       <c r="F151">
-        <v>1.5699999999999999E-2</v>
+        <v>1.4800000000000001E-2</v>
       </c>
       <c r="G151">
-        <v>9.7400000000000004E-3</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7">
+        <v>8.8500000000000002E-3</v>
+      </c>
+      <c r="I151" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8783685360524401E-4</v>
+      </c>
+      <c r="J151">
+        <f t="shared" si="1"/>
+        <v>4.7305171158048064E-5</v>
+      </c>
+      <c r="K151" s="1">
+        <f t="shared" si="2"/>
+        <v>8.8237436270939543E-5</v>
+      </c>
+      <c r="L151" s="1">
+        <f t="shared" si="3"/>
+        <v>5.2621995630007282E-5</v>
+      </c>
+      <c r="M151" s="1">
+        <f t="shared" si="4"/>
+        <v>5.3896576839038606E-6</v>
+      </c>
+      <c r="N151" s="1">
+        <f t="shared" si="5"/>
+        <v>3.2228696285506193E-6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14">
       <c r="A152">
-        <v>3168</v>
+        <v>3050</v>
       </c>
       <c r="B152">
-        <v>0.68330000000000002</v>
+        <v>0.63629999999999998</v>
       </c>
       <c r="C152">
-        <v>0.1734</v>
+        <v>0.1608</v>
       </c>
       <c r="D152">
-        <v>0.34029999999999999</v>
+        <v>0.31240000000000001</v>
       </c>
       <c r="E152">
-        <v>0.20069999999999999</v>
+        <v>0.1835</v>
       </c>
       <c r="F152">
-        <v>1.865E-2</v>
+        <v>1.77E-2</v>
       </c>
       <c r="G152">
-        <v>1.256E-2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7">
+        <v>1.15E-2</v>
+      </c>
+      <c r="I152" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0862295081967212E-4</v>
+      </c>
+      <c r="J152">
+        <f t="shared" si="1"/>
+        <v>5.2721311475409835E-5</v>
+      </c>
+      <c r="K152" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0242622950819672E-4</v>
+      </c>
+      <c r="L152" s="1">
+        <f t="shared" si="3"/>
+        <v>6.0163934426229508E-5</v>
+      </c>
+      <c r="M152" s="1">
+        <f t="shared" si="4"/>
+        <v>5.8032786885245901E-6</v>
+      </c>
+      <c r="N152" s="1">
+        <f t="shared" si="5"/>
+        <v>3.7704918032786884E-6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14">
       <c r="A154" t="s">
         <v>37</v>
       </c>
@@ -8164,13 +8674,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE22075-D108-5648-8EC8-7F00361AFFBB}">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="J65" sqref="J65"/>
+      <selection activeCell="G50" sqref="G50:J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -8407,12 +8923,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>30</v>
       </c>
@@ -8428,8 +8944,20 @@
       <c r="E50" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="G50" t="s">
+        <v>39</v>
+      </c>
+      <c r="H50" t="s">
+        <v>40</v>
+      </c>
+      <c r="I50" t="s">
+        <v>41</v>
+      </c>
+      <c r="J50" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51">
         <v>80</v>
       </c>
@@ -8445,8 +8973,24 @@
       <c r="E51">
         <v>1.1900000000000001E-3</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="G51">
+        <f>B51/A51</f>
+        <v>6.9187499999999996E-6</v>
+      </c>
+      <c r="H51">
+        <f>C51/A51</f>
+        <v>4.1424999999999997E-6</v>
+      </c>
+      <c r="I51">
+        <f>D51/A51</f>
+        <v>5.64375E-6</v>
+      </c>
+      <c r="J51">
+        <f>E51/A51</f>
+        <v>1.4875000000000001E-5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52">
         <v>96</v>
       </c>
@@ -8462,8 +9006,24 @@
       <c r="E52">
         <v>1.8140000000000001E-3</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="G52">
+        <f t="shared" ref="G52:G60" si="0">B52/A52</f>
+        <v>1.0241666666666667E-5</v>
+      </c>
+      <c r="H52">
+        <f t="shared" ref="H52:H60" si="1">C52/A52</f>
+        <v>5.2104166666666668E-6</v>
+      </c>
+      <c r="I52">
+        <f t="shared" ref="I52:I60" si="2">D52/A52</f>
+        <v>1.4729166666666666E-5</v>
+      </c>
+      <c r="J52">
+        <f t="shared" ref="J52:J60" si="3">E52/A52</f>
+        <v>1.8895833333333333E-5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53">
         <v>128</v>
       </c>
@@ -8479,8 +9039,24 @@
       <c r="E53">
         <v>3.6440000000000001E-3</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="G53">
+        <f t="shared" si="0"/>
+        <v>1.90703125E-5</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="1"/>
+        <v>1.00546875E-5</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="2"/>
+        <v>2.6171875000000001E-5</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="3"/>
+        <v>2.8468750000000001E-5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54">
         <v>176</v>
       </c>
@@ -8496,8 +9072,24 @@
       <c r="E54">
         <v>8.2170000000000003E-3</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="G54">
+        <f t="shared" si="0"/>
+        <v>3.6181818181818186E-5</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="1"/>
+        <v>1.8312500000000001E-5</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="2"/>
+        <v>4.5982954545454541E-5</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="3"/>
+        <v>4.6687500000000003E-5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55">
         <v>240</v>
       </c>
@@ -8513,8 +9105,24 @@
       <c r="E55">
         <v>2.0729999999999998E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="G55">
+        <f t="shared" si="0"/>
+        <v>6.8999999999999997E-5</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="1"/>
+        <v>3.4895833333333332E-5</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="2"/>
+        <v>7.2458333333333324E-5</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="3"/>
+        <v>8.6374999999999999E-5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56">
         <v>320</v>
       </c>
@@ -8530,8 +9138,24 @@
       <c r="E56">
         <v>3.918E-2</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="G56">
+        <f t="shared" si="0"/>
+        <v>1.3056249999999998E-4</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="1"/>
+        <v>5.8718750000000001E-5</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="2"/>
+        <v>1.0909374999999999E-4</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="3"/>
+        <v>1.2243749999999999E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57">
         <v>416</v>
       </c>
@@ -8547,8 +9171,24 @@
       <c r="E57">
         <v>0.1036</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="G57">
+        <f t="shared" si="0"/>
+        <v>2.2610576923076924E-4</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="1"/>
+        <v>8.5721153846153835E-5</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="2"/>
+        <v>1.4983173076923078E-4</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="3"/>
+        <v>2.4903846153846151E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58">
         <v>528</v>
       </c>
@@ -8564,8 +9204,24 @@
       <c r="E58">
         <v>0.1404</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="G58">
+        <f t="shared" si="0"/>
+        <v>3.6325757575757575E-4</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="1"/>
+        <v>1.0899621212121211E-4</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="2"/>
+        <v>2.0700757575757575E-4</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="3"/>
+        <v>2.659090909090909E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59">
         <v>656</v>
       </c>
@@ -8581,8 +9237,24 @@
       <c r="E59">
         <v>0.61619999999999997</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="G59">
+        <f t="shared" si="0"/>
+        <v>5.7195121951219511E-4</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="1"/>
+        <v>1.9146341463414633E-4</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="2"/>
+        <v>3.143292682926829E-4</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="3"/>
+        <v>9.3932926829268292E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60">
         <v>800</v>
       </c>
@@ -8598,8 +9270,24 @@
       <c r="E60">
         <v>1.1140000000000001</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="G60">
+        <f t="shared" si="0"/>
+        <v>8.4949999999999999E-4</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="1"/>
+        <v>3.00625E-4</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="2"/>
+        <v>4.6399999999999995E-4</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="3"/>
+        <v>1.3925000000000001E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
         <v>37</v>
       </c>
@@ -8613,10 +9301,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45508B96-921E-9644-8E49-87868C4584F6}">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50:E60"/>
+      <selection activeCell="G50" sqref="G50:J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8856,12 +9544,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>30</v>
       </c>
@@ -8877,8 +9565,20 @@
       <c r="E50" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="G50" t="s">
+        <v>39</v>
+      </c>
+      <c r="H50" t="s">
+        <v>40</v>
+      </c>
+      <c r="I50" t="s">
+        <v>41</v>
+      </c>
+      <c r="J50" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51">
         <v>80</v>
       </c>
@@ -8894,8 +9594,24 @@
       <c r="E51">
         <v>6.9870000000000002E-4</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="G51">
+        <f>B51/A51</f>
+        <v>6.8974999999999996E-6</v>
+      </c>
+      <c r="H51">
+        <f>C51/A51</f>
+        <v>5.9050000000000002E-6</v>
+      </c>
+      <c r="I51">
+        <f>D51/A51</f>
+        <v>5.5550000000000002E-6</v>
+      </c>
+      <c r="J51">
+        <f>E51/A51</f>
+        <v>8.7337500000000009E-6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52">
         <v>96</v>
       </c>
@@ -8911,8 +9627,24 @@
       <c r="E52">
         <v>9.4039999999999998E-4</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="G52">
+        <f t="shared" ref="G52:G60" si="0">B52/A52</f>
+        <v>1.0178125E-5</v>
+      </c>
+      <c r="H52">
+        <f t="shared" ref="H52:H60" si="1">C52/A52</f>
+        <v>7.5343749999999993E-6</v>
+      </c>
+      <c r="I52">
+        <f t="shared" ref="I52:I60" si="2">D52/A52</f>
+        <v>7.7239583333333325E-6</v>
+      </c>
+      <c r="J52">
+        <f t="shared" ref="J52:J60" si="3">E52/A52</f>
+        <v>9.7958333333333337E-6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53">
         <v>128</v>
       </c>
@@ -8928,8 +9660,24 @@
       <c r="E53">
         <v>2.0300000000000001E-3</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="G53">
+        <f t="shared" si="0"/>
+        <v>1.8929687499999998E-5</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="1"/>
+        <v>1.1203125E-5</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="2"/>
+        <v>1.3101562500000001E-5</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="3"/>
+        <v>1.5859375000000001E-5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54">
         <v>176</v>
       </c>
@@ -8945,8 +9693,24 @@
       <c r="E54">
         <v>5.0610000000000004E-3</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="G54">
+        <f t="shared" si="0"/>
+        <v>3.6096590909090913E-5</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="1"/>
+        <v>1.9744318181818179E-5</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="2"/>
+        <v>2.3920454545454547E-5</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="3"/>
+        <v>2.875568181818182E-5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55">
         <v>240</v>
       </c>
@@ -8962,8 +9726,24 @@
       <c r="E55">
         <v>1.17E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="G55">
+        <f t="shared" si="0"/>
+        <v>6.8916666666666657E-5</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="1"/>
+        <v>3.5583333333333335E-5</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="2"/>
+        <v>4.370833333333333E-5</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="3"/>
+        <v>4.8749999999999999E-5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56">
         <v>320</v>
       </c>
@@ -8979,8 +9759,24 @@
       <c r="E56">
         <v>2.418E-2</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="G56">
+        <f t="shared" si="0"/>
+        <v>1.2965625E-4</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="1"/>
+        <v>5.9406249999999997E-5</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="2"/>
+        <v>7.706250000000001E-5</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="3"/>
+        <v>7.55625E-5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57">
         <v>416</v>
       </c>
@@ -8996,8 +9792,24 @@
       <c r="E57">
         <v>4.3409999999999997E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="G57">
+        <f t="shared" si="0"/>
+        <v>2.2625E-4</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="1"/>
+        <v>8.6105769230769227E-5</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="2"/>
+        <v>1.2884615384615384E-4</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="3"/>
+        <v>1.0435096153846153E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58">
         <v>528</v>
       </c>
@@ -9013,8 +9825,24 @@
       <c r="E58">
         <v>6.9570000000000007E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="G58">
+        <f t="shared" si="0"/>
+        <v>3.6325757575757575E-4</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="1"/>
+        <v>1.0933712121212121E-4</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="2"/>
+        <v>2.0643939393939393E-4</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="3"/>
+        <v>1.3176136363636366E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59">
         <v>656</v>
       </c>
@@ -9030,8 +9858,24 @@
       <c r="E59">
         <v>0.12330000000000001</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="G59">
+        <f t="shared" si="0"/>
+        <v>5.7195121951219511E-4</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="1"/>
+        <v>1.4682926829268292E-4</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="2"/>
+        <v>3.1371951219512199E-4</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="3"/>
+        <v>1.8795731707317074E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60">
         <v>800</v>
       </c>
@@ -9047,8 +9891,24 @@
       <c r="E60">
         <v>0.2225</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="G60">
+        <f t="shared" si="0"/>
+        <v>8.52E-4</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="1"/>
+        <v>2.1774999999999998E-4</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="2"/>
+        <v>4.6387499999999999E-4</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="3"/>
+        <v>2.78125E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
         <v>37</v>
       </c>
@@ -9062,10 +9922,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F5FFED-6ACE-224F-A59D-ED9418F5E6A2}">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9305,12 +10165,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>30</v>
       </c>
@@ -9326,8 +10186,20 @@
       <c r="E50" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="G50" t="s">
+        <v>39</v>
+      </c>
+      <c r="H50" t="s">
+        <v>40</v>
+      </c>
+      <c r="I50" t="s">
+        <v>41</v>
+      </c>
+      <c r="J50" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51">
         <v>80</v>
       </c>
@@ -9343,8 +10215,24 @@
       <c r="E51">
         <v>9.0390000000000002E-3</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="G51">
+        <f>B51/A51</f>
+        <v>6.9250000000000006E-6</v>
+      </c>
+      <c r="H51">
+        <f>C51/A51</f>
+        <v>9.3737499999999995E-5</v>
+      </c>
+      <c r="I51">
+        <f>D51/A51</f>
+        <v>5.5325E-6</v>
+      </c>
+      <c r="J51">
+        <f>E51/A51</f>
+        <v>1.129875E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52">
         <v>96</v>
       </c>
@@ -9360,8 +10248,24 @@
       <c r="E52">
         <v>1.333E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="G52">
+        <f t="shared" ref="G52:G60" si="0">B52/A52</f>
+        <v>1.0155208333333334E-5</v>
+      </c>
+      <c r="H52">
+        <f t="shared" ref="H52:H60" si="1">C52/A52</f>
+        <v>1.0927083333333333E-4</v>
+      </c>
+      <c r="I52">
+        <f t="shared" ref="I52:I60" si="2">D52/A52</f>
+        <v>7.7302083333333326E-6</v>
+      </c>
+      <c r="J52">
+        <f t="shared" ref="J52:J60" si="3">E52/A52</f>
+        <v>1.3885416666666666E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53">
         <v>128</v>
       </c>
@@ -9377,8 +10281,24 @@
       <c r="E53">
         <v>2.383E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="G53">
+        <f t="shared" si="0"/>
+        <v>1.89921875E-5</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="1"/>
+        <v>1.3937500000000001E-4</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="2"/>
+        <v>1.3140624999999999E-5</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="3"/>
+        <v>1.86171875E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54">
         <v>176</v>
       </c>
@@ -9394,8 +10314,24 @@
       <c r="E54">
         <v>4.3180000000000003E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="G54">
+        <f t="shared" si="0"/>
+        <v>3.6062500000000002E-5</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="1"/>
+        <v>1.8187499999999999E-4</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="2"/>
+        <v>2.3988636363636365E-5</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="3"/>
+        <v>2.4534090909090908E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55">
         <v>240</v>
       </c>
@@ -9411,8 +10347,24 @@
       <c r="E55">
         <v>8.0210000000000004E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="G55">
+        <f t="shared" si="0"/>
+        <v>6.9458333333333332E-5</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="1"/>
+        <v>2.6733333333333329E-4</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="2"/>
+        <v>4.370833333333333E-5</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="3"/>
+        <v>3.3420833333333333E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56">
         <v>320</v>
       </c>
@@ -9428,8 +10380,24 @@
       <c r="E56">
         <v>0.15690000000000001</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="G56">
+        <f t="shared" si="0"/>
+        <v>1.2978124999999999E-4</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="1"/>
+        <v>3.6031250000000001E-4</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="2"/>
+        <v>7.6968749999999997E-5</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="3"/>
+        <v>4.9031250000000008E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57">
         <v>416</v>
       </c>
@@ -9445,8 +10413,24 @@
       <c r="E57">
         <v>0.26069999999999999</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="G57">
+        <f t="shared" si="0"/>
+        <v>2.2314903846153844E-4</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="1"/>
+        <v>5.0817307692307696E-4</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="2"/>
+        <v>1.2870192307692306E-4</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="3"/>
+        <v>6.2668269230769223E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58">
         <v>528</v>
       </c>
@@ -9462,8 +10446,24 @@
       <c r="E58">
         <v>0.46260000000000001</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="G58">
+        <f t="shared" si="0"/>
+        <v>3.5965909090909093E-4</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="1"/>
+        <v>6.5265151515151516E-4</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="2"/>
+        <v>2.0530303030303029E-4</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="3"/>
+        <v>8.7613636363636366E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59">
         <v>656</v>
       </c>
@@ -9479,8 +10479,24 @@
       <c r="E59">
         <v>0.76080000000000003</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="G59">
+        <f t="shared" si="0"/>
+        <v>5.6646341463414637E-4</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="1"/>
+        <v>8.7347560975609747E-4</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="2"/>
+        <v>3.1234756097560975E-4</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="3"/>
+        <v>1.1597560975609756E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60">
         <v>800</v>
       </c>
@@ -9496,8 +10512,24 @@
       <c r="E60">
         <v>1.288</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="G60">
+        <f t="shared" si="0"/>
+        <v>8.4250000000000004E-4</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="1"/>
+        <v>1.183375E-3</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="2"/>
+        <v>4.6137499999999998E-4</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="3"/>
+        <v>1.6100000000000001E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
         <v>37</v>
       </c>

--- a/Assignment6/Assignment6_data.xlsx
+++ b/Assignment6/Assignment6_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/EC527/Assignment6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBD41EC-B7D6-C040-9AEA-2263FF517E21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0C206C-4BBE-1B49-8BDE-E91C518CA054}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="980" windowWidth="22460" windowHeight="15300" activeTab="3" xr2:uid="{D6ADFBF4-8A9F-164E-82A3-1A6061E9FFF8}"/>
+    <workbookView xWindow="2500" yWindow="1680" windowWidth="22460" windowHeight="15300" activeTab="1" xr2:uid="{D6ADFBF4-8A9F-164E-82A3-1A6061E9FFF8}"/>
   </bookViews>
   <sheets>
     <sheet name="1b" sheetId="1" r:id="rId1"/>
@@ -141,9 +141,6 @@
     <t xml:space="preserve"> omp_overhead_bound</t>
   </si>
   <si>
-    <t xml:space="preserve">Initial delay was calculating: 0.0729728 </t>
-  </si>
-  <si>
     <t>OpenMP Matrix Multiply</t>
   </si>
   <si>
@@ -157,6 +154,9 @@
   </si>
   <si>
     <t xml:space="preserve"> kij_omp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial delay was calculating: 1.00571 </t>
   </si>
 </sst>
 </file>
@@ -420,64 +420,64 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>4.9309999999999999E-6</c:v>
+                  <c:v>2.7200000000000002E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8265384615384617E-6</c:v>
+                  <c:v>1.0392307692307691E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9034482758620691E-6</c:v>
+                  <c:v>2.7827586206896552E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.1632075471698113E-6</c:v>
+                  <c:v>4.5339622641509434E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1547058823529411E-5</c:v>
+                  <c:v>7.0235294117647054E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6988000000000001E-5</c:v>
+                  <c:v>1.0104E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.344508670520231E-5</c:v>
+                  <c:v>1.3904624277456648E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1091703056768555E-5</c:v>
+                  <c:v>1.8388646288209609E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.9744027303754266E-5</c:v>
+                  <c:v>2.3481228668941978E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.9424657534246574E-5</c:v>
+                  <c:v>2.926027397260274E-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.0325842696629216E-5</c:v>
+                  <c:v>3.5573033707865166E-5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.2204502814258913E-5</c:v>
+                  <c:v>4.2626641651031897E-5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.5135135135135142E-5</c:v>
+                  <c:v>5.0508744038155805E-5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.9454297407912696E-5</c:v>
+                  <c:v>5.8710777626193722E-5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.1532544378698224E-4</c:v>
+                  <c:v>6.7692307692307697E-5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.3191709844559586E-4</c:v>
+                  <c:v>7.7305699481865285E-5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.4945105215004575E-4</c:v>
+                  <c:v>8.7968892955169262E-5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.6826688364524005E-4</c:v>
+                  <c:v>9.8331977217249792E-5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.8783685360524401E-4</c:v>
+                  <c:v>1.1008739985433358E-4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.0862295081967212E-4</c:v>
+                  <c:v>1.2232786885245901E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -603,64 +603,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1.0139999999999999E-5</c:v>
+                  <c:v>5.7389999999999996E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0642307692307693E-6</c:v>
+                  <c:v>3.288846153846154E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1620689655172415E-6</c:v>
+                  <c:v>6.3310344827586205E-7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.9018867924528303E-6</c:v>
+                  <c:v>1.4716981132075471E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.8041176470588241E-6</c:v>
+                  <c:v>2.1805882352941179E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.4759999999999998E-6</c:v>
+                  <c:v>2.886E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1786127167630058E-5</c:v>
+                  <c:v>3.9421965317919076E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5043668122270743E-5</c:v>
+                  <c:v>5.0589519650655022E-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.8003412969283279E-5</c:v>
+                  <c:v>6.4436860068259385E-6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.0575342465753423E-5</c:v>
+                  <c:v>7.8712328767123288E-6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.2617977528089887E-5</c:v>
+                  <c:v>9.4325842696629216E-6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.4080675422138835E-5</c:v>
+                  <c:v>1.1313320825515947E-5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.4968203497615262E-5</c:v>
+                  <c:v>1.3314785373608903E-5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.5825375170532059E-5</c:v>
+                  <c:v>1.5572987721691677E-5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.9201183431952662E-5</c:v>
+                  <c:v>1.7875739644970414E-5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.3295336787564768E-5</c:v>
+                  <c:v>2.033678756476684E-5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.7625800548947852E-5</c:v>
+                  <c:v>2.3019213174748396E-5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.2270138323840521E-5</c:v>
+                  <c:v>2.5890968266883645E-5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.7305171158048064E-5</c:v>
+                  <c:v>2.9020393299344501E-5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.2721311475409835E-5</c:v>
+                  <c:v>3.238360655737705E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -786,64 +786,64 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1.189E-6</c:v>
+                  <c:v>6.3100000000000003E-8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7473076923076921E-7</c:v>
+                  <c:v>3.6653846153846153E-8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0827586206896549E-7</c:v>
+                  <c:v>3.9086206896551727E-7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5688679245283019E-6</c:v>
+                  <c:v>3.390566037735849E-7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2317647058823531E-6</c:v>
+                  <c:v>9.6176470588235298E-7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.1155999999999999E-6</c:v>
+                  <c:v>1.2559999999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.398843930635838E-6</c:v>
+                  <c:v>1.7563583815028902E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.8624454148471615E-6</c:v>
+                  <c:v>2.3340611353711791E-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.8668941979522178E-6</c:v>
+                  <c:v>3.1450511945392491E-6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.186301369863014E-6</c:v>
+                  <c:v>4.6643835616438354E-6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.9595505617977534E-6</c:v>
+                  <c:v>8.3876404494382028E-6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.3433395872420262E-5</c:v>
+                  <c:v>1.2917448405253282E-5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.0961844197138316E-5</c:v>
+                  <c:v>1.8322734499205088E-5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.9931787175989087E-5</c:v>
+                  <c:v>2.4358799454297406E-5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.9810650887573968E-5</c:v>
+                  <c:v>3.0958579881656803E-5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.0626943005181347E-5</c:v>
+                  <c:v>3.801554404145078E-5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.2351326623970722E-5</c:v>
+                  <c:v>4.5457456541628546E-5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.4938974776240852E-5</c:v>
+                  <c:v>5.3376729048006513E-5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.8237436270939543E-5</c:v>
+                  <c:v>6.2017479970866721E-5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.0242622950819672E-4</c:v>
+                  <c:v>7.0524590163934436E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -969,64 +969,64 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>6.1929999999999998E-6</c:v>
+                  <c:v>6.1879999999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2403846153846156E-7</c:v>
+                  <c:v>7.0153846153846149E-8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6603448275862071E-7</c:v>
+                  <c:v>1.1446551724137932E-7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1150943396226415E-6</c:v>
+                  <c:v>2.1301886792452831E-7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3835294117647058E-6</c:v>
+                  <c:v>4.0347058823529417E-7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9632000000000001E-6</c:v>
+                  <c:v>7.9039999999999998E-7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6898843930635837E-6</c:v>
+                  <c:v>9.7543352601156081E-7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.4737991266375546E-6</c:v>
+                  <c:v>1.1436681222707424E-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.3515358361774743E-6</c:v>
+                  <c:v>1.483788395904437E-6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.3739726027397266E-6</c:v>
+                  <c:v>2.3602739726027394E-6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.4056179775280899E-6</c:v>
+                  <c:v>4.1977528089887642E-6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.5863039399624762E-6</c:v>
+                  <c:v>6.454971857410882E-6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2909379968203499E-5</c:v>
+                  <c:v>8.9825119236883931E-6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.8697135061391542E-5</c:v>
+                  <c:v>1.159618008185539E-5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.4792899408284024E-5</c:v>
+                  <c:v>1.4337278106508876E-5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.0507772020725388E-5</c:v>
+                  <c:v>1.7253886010362695E-5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.7909423604757546E-5</c:v>
+                  <c:v>2.0269899359560842E-5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.5280716029292106E-5</c:v>
+                  <c:v>2.3181448331977219E-5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.2621995630007282E-5</c:v>
+                  <c:v>2.6842680262199562E-5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.0163934426229508E-5</c:v>
+                  <c:v>3.0668852459016393E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1152,64 +1152,64 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>6.1700000000000003E-8</c:v>
+                  <c:v>2.0900000000000002E-8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7038461538461537E-8</c:v>
+                  <c:v>1.4153846153846154E-8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1074137931034484E-7</c:v>
+                  <c:v>3.0224137931034482E-8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9330188679245282E-7</c:v>
+                  <c:v>5.7349056603773579E-8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8988235294117648E-7</c:v>
+                  <c:v>1.0005882352941177E-7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.5439999999999999E-7</c:v>
+                  <c:v>1.4859999999999999E-7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.5057803468208091E-7</c:v>
+                  <c:v>2.4673410404624281E-7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.1899563318777298E-7</c:v>
+                  <c:v>2.9934497816593887E-7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.2218430034129695E-7</c:v>
+                  <c:v>3.4931740614334468E-7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.2293150684931507E-6</c:v>
+                  <c:v>4.5123287671232877E-7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4820224719101124E-6</c:v>
+                  <c:v>5.3415730337078658E-7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.7570356472795498E-6</c:v>
+                  <c:v>6.9165103189493436E-7</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.0580286168521466E-6</c:v>
+                  <c:v>8.3704292527821936E-7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.5607094133697134E-6</c:v>
+                  <c:v>1.0136425648021827E-6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.2970414201183431E-6</c:v>
+                  <c:v>1.2142011834319526E-6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.0968911917098454E-6</c:v>
+                  <c:v>1.4502590673575129E-6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.5882891125343093E-6</c:v>
+                  <c:v>1.6221408966148216E-6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.9877949552481692E-6</c:v>
+                  <c:v>1.8152969894222944E-6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.3896576839038606E-6</c:v>
+                  <c:v>2.0422432629278951E-6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.8032786885245901E-6</c:v>
+                  <c:v>2.2904918032786886E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1335,64 +1335,64 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>5.2509999999999994E-6</c:v>
+                  <c:v>6.0720000000000005E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5926923076923076E-7</c:v>
+                  <c:v>3.5076923076923074E-8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1924137931034483E-7</c:v>
+                  <c:v>3.3034482758620692E-8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2641509433962266E-7</c:v>
+                  <c:v>3.7613207547169815E-8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6252941176470589E-7</c:v>
+                  <c:v>4.7935294117647053E-8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1551999999999999E-7</c:v>
+                  <c:v>6.3360000000000006E-8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.7682080924855492E-7</c:v>
+                  <c:v>8.3150289017341044E-8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.7510917030567686E-7</c:v>
+                  <c:v>1.8676855895196506E-7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.3703071672354946E-7</c:v>
+                  <c:v>1.4191126279863481E-7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.0726027397260271E-7</c:v>
+                  <c:v>2.0643835616438356E-7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.3280898876404499E-7</c:v>
+                  <c:v>3.1943820224719105E-7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.3621013133208249E-7</c:v>
+                  <c:v>5.0619136960600374E-7</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.7535771065182841E-7</c:v>
+                  <c:v>7.1263910969793329E-7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1841746248294679E-6</c:v>
+                  <c:v>9.290586630286493E-7</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3727810650887574E-6</c:v>
+                  <c:v>1.1195266272189349E-6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.6580310880829016E-6</c:v>
+                  <c:v>1.3264248704663214E-6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.0681610247026532E-6</c:v>
+                  <c:v>1.5045745654162853E-6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.5724165988608625E-6</c:v>
+                  <c:v>1.7404393816110658E-6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.2228696285506193E-6</c:v>
+                  <c:v>1.9399126001456666E-6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.7704918032786884E-6</c:v>
+                  <c:v>2.158032786885246E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1887,34 +1887,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6.9187499999999996E-6</c:v>
+                  <c:v>4.1075000000000001E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0241666666666667E-5</c:v>
+                  <c:v>6.5604166666666666E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.90703125E-5</c:v>
+                  <c:v>1.2820312500000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.6181818181818186E-5</c:v>
+                  <c:v>2.4590909090909092E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.8999999999999997E-5</c:v>
+                  <c:v>4.5291666666666665E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3056249999999998E-4</c:v>
+                  <c:v>8.3531250000000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.2610576923076924E-4</c:v>
+                  <c:v>1.4331730769230768E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.6325757575757575E-4</c:v>
+                  <c:v>2.3125000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.7195121951219511E-4</c:v>
+                  <c:v>3.6128048780487804E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.4949999999999999E-4</c:v>
+                  <c:v>5.4549999999999998E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2010,34 +2010,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.1424999999999997E-6</c:v>
+                  <c:v>1.87875E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.2104166666666668E-6</c:v>
+                  <c:v>1.7822916666666667E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.00546875E-5</c:v>
+                  <c:v>3.6078125E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8312500000000001E-5</c:v>
+                  <c:v>6.4034090909090909E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4895833333333332E-5</c:v>
+                  <c:v>1.2229166666666666E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.8718750000000001E-5</c:v>
+                  <c:v>2.2371875E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.5721153846153835E-5</c:v>
+                  <c:v>3.8173076923076919E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0899621212121211E-4</c:v>
+                  <c:v>6.2159090909090909E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.9146341463414633E-4</c:v>
+                  <c:v>9.7118902439024388E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.00625E-4</c:v>
+                  <c:v>1.4412499999999999E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2133,34 +2133,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5.64375E-6</c:v>
+                  <c:v>3.2275E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4729166666666666E-5</c:v>
+                  <c:v>4.5385416666666666E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6171875000000001E-5</c:v>
+                  <c:v>7.8906250000000004E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.5982954545454541E-5</c:v>
+                  <c:v>1.4625E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.2458333333333324E-5</c:v>
+                  <c:v>2.6816666666666667E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0909374999999999E-4</c:v>
+                  <c:v>4.7218749999999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4983173076923078E-4</c:v>
+                  <c:v>7.9254807692307686E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0700757575757575E-4</c:v>
+                  <c:v>1.2526515151515153E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.143292682926829E-4</c:v>
+                  <c:v>1.8704268292682927E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.6399999999999995E-4</c:v>
+                  <c:v>2.7837500000000003E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2256,34 +2256,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.4875000000000001E-5</c:v>
+                  <c:v>4.5862499999999995E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8895833333333333E-5</c:v>
+                  <c:v>5.2749999999999995E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.8468750000000001E-5</c:v>
+                  <c:v>8.3046874999999994E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.6687500000000003E-5</c:v>
+                  <c:v>1.0607954545454545E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.6374999999999999E-5</c:v>
+                  <c:v>1.8179166666666667E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2243749999999999E-4</c:v>
+                  <c:v>3.1937499999999997E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.4903846153846151E-4</c:v>
+                  <c:v>5.2812500000000003E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.659090909090909E-4</c:v>
+                  <c:v>8.410984848484848E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.3932926829268292E-4</c:v>
+                  <c:v>1.2449695121951221E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3925000000000001E-3</c:v>
+                  <c:v>1.8249999999999999E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2774,34 +2774,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6.8974999999999996E-6</c:v>
+                  <c:v>4.1649999999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0178125E-5</c:v>
+                  <c:v>6.8239583333333335E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8929687499999998E-5</c:v>
+                  <c:v>1.3382812499999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.6096590909090913E-5</c:v>
+                  <c:v>2.4789772727272725E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.8916666666666657E-5</c:v>
+                  <c:v>4.5541666666666671E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2965625E-4</c:v>
+                  <c:v>8.2968750000000008E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.2625E-4</c:v>
+                  <c:v>1.4194711538461537E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.6325757575757575E-4</c:v>
+                  <c:v>2.3143939393939394E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.7195121951219511E-4</c:v>
+                  <c:v>3.6051829268292682E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.52E-4</c:v>
+                  <c:v>5.44E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2897,34 +2897,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5.9050000000000002E-6</c:v>
+                  <c:v>2.4337499999999998E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.5343749999999993E-6</c:v>
+                  <c:v>2.3583333333333333E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1203125E-5</c:v>
+                  <c:v>4.6328125E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9744318181818179E-5</c:v>
+                  <c:v>6.8977272727272725E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.5583333333333335E-5</c:v>
+                  <c:v>1.2675E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.9406249999999997E-5</c:v>
+                  <c:v>2.270625E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.6105769230769227E-5</c:v>
+                  <c:v>3.8365384615384615E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0933712121212121E-4</c:v>
+                  <c:v>6.2746212121212114E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4682926829268292E-4</c:v>
+                  <c:v>9.783536585365854E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.1774999999999998E-4</c:v>
+                  <c:v>1.4574999999999999E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3020,34 +3020,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5.5550000000000002E-6</c:v>
+                  <c:v>5.4187500000000004E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.7239583333333325E-6</c:v>
+                  <c:v>6.8750000000000002E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3101562500000001E-5</c:v>
+                  <c:v>1.2132812499999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3920454545454547E-5</c:v>
+                  <c:v>2.1943181818181817E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.370833333333333E-5</c:v>
+                  <c:v>3.9775000000000005E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.706250000000001E-5</c:v>
+                  <c:v>7.0062500000000002E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2884615384615384E-4</c:v>
+                  <c:v>1.1812500000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0643939393939393E-4</c:v>
+                  <c:v>1.8547348484848487E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.1371951219512199E-4</c:v>
+                  <c:v>2.7957317073170734E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.6387499999999999E-4</c:v>
+                  <c:v>4.1487499999999999E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3143,34 +3143,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8.7337500000000009E-6</c:v>
+                  <c:v>3.0849999999999997E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.7958333333333337E-6</c:v>
+                  <c:v>2.7833333333333331E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5859375000000001E-5</c:v>
+                  <c:v>4.1960937499999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.875568181818182E-5</c:v>
+                  <c:v>7.1875000000000002E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.8749999999999999E-5</c:v>
+                  <c:v>1.3108333333333333E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.55625E-5</c:v>
+                  <c:v>2.2921875E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0435096153846153E-4</c:v>
+                  <c:v>3.8413461538461542E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3176136363636366E-4</c:v>
+                  <c:v>6.1534090909090908E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.8795731707317074E-4</c:v>
+                  <c:v>9.4573170731707313E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.78125E-4</c:v>
+                  <c:v>1.3925E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3661,34 +3661,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6.9250000000000006E-6</c:v>
+                  <c:v>5.0049999999999995E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0155208333333334E-5</c:v>
+                  <c:v>6.8604166666666663E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.89921875E-5</c:v>
+                  <c:v>1.2828125E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.6062500000000002E-5</c:v>
+                  <c:v>2.4721590909090908E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.9458333333333332E-5</c:v>
+                  <c:v>4.5416666666666668E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2978124999999999E-4</c:v>
+                  <c:v>8.4187499999999993E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.2314903846153844E-4</c:v>
+                  <c:v>1.4348557692307691E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.5965909090909093E-4</c:v>
+                  <c:v>2.316287878787879E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.6646341463414637E-4</c:v>
+                  <c:v>3.6021341463414637E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.4250000000000004E-4</c:v>
+                  <c:v>5.4437500000000005E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3784,34 +3784,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9.3737499999999995E-5</c:v>
+                  <c:v>2.5687500000000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0927083333333333E-4</c:v>
+                  <c:v>2.9718750000000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3937500000000001E-4</c:v>
+                  <c:v>4.1398437499999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8187499999999999E-4</c:v>
+                  <c:v>6.130681818181818E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.6733333333333329E-4</c:v>
+                  <c:v>9.1375000000000012E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.6031250000000001E-4</c:v>
+                  <c:v>1.3534374999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0817307692307696E-4</c:v>
+                  <c:v>1.9603365384615384E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.5265151515151516E-4</c:v>
+                  <c:v>2.8200757575757576E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.7347560975609747E-4</c:v>
+                  <c:v>3.9176829268292685E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.183375E-3</c:v>
+                  <c:v>5.3812499999999997E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3907,34 +3907,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5.5325E-6</c:v>
+                  <c:v>2.6262500000000001E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.7302083333333326E-6</c:v>
+                  <c:v>3.6822916666666665E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3140624999999999E-5</c:v>
+                  <c:v>6.2726562499999996E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3988636363636365E-5</c:v>
+                  <c:v>1.1488636363636363E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.370833333333333E-5</c:v>
+                  <c:v>2.1229166666666667E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.6968749999999997E-5</c:v>
+                  <c:v>3.7593750000000002E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2870192307692306E-4</c:v>
+                  <c:v>6.3125000000000003E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0530303030303029E-4</c:v>
+                  <c:v>9.9375000000000003E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.1234756097560975E-4</c:v>
+                  <c:v>1.4824695121951219E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.6137499999999998E-4</c:v>
+                  <c:v>2.1812499999999998E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4030,34 +4030,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.129875E-4</c:v>
+                  <c:v>2.6487499999999997E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3885416666666666E-4</c:v>
+                  <c:v>3.1395833333333335E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.86171875E-4</c:v>
+                  <c:v>4.2968749999999998E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4534090909090908E-4</c:v>
+                  <c:v>6.2784090909090911E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3420833333333333E-4</c:v>
+                  <c:v>9.0791666666666674E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.9031250000000008E-4</c:v>
+                  <c:v>1.300625E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.2668269230769223E-4</c:v>
+                  <c:v>1.8663461538461539E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.7613636363636366E-4</c:v>
+                  <c:v>2.5795454545454543E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1597560975609756E-3</c:v>
+                  <c:v>3.4527439024390247E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.6100000000000001E-3</c:v>
+                  <c:v>4.5037500000000004E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7019,15 +7019,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2194C0F6-AFAF-4E4F-8476-8708DF0678E2}">
   <dimension ref="A1:N154"/>
   <sheetViews>
-    <sheetView topLeftCell="G120" workbookViewId="0">
-      <selection activeCell="S117" sqref="S117"/>
+    <sheetView topLeftCell="K107" workbookViewId="0">
+      <selection activeCell="I155" sqref="I155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -7725,46 +7721,46 @@
         <v>10</v>
       </c>
       <c r="B133" s="1">
-        <v>4.9310000000000001E-5</v>
-      </c>
-      <c r="C133">
-        <v>1.014E-4</v>
+        <v>2.72E-5</v>
+      </c>
+      <c r="C133" s="1">
+        <v>5.7389999999999998E-5</v>
       </c>
       <c r="D133" s="1">
-        <v>1.189E-5</v>
+        <v>6.3099999999999997E-7</v>
       </c>
       <c r="E133" s="1">
-        <v>6.1929999999999998E-5</v>
+        <v>6.1879999999999997E-5</v>
       </c>
       <c r="F133" s="1">
-        <v>6.1699999999999998E-7</v>
+        <v>2.0900000000000001E-7</v>
       </c>
       <c r="G133" s="1">
-        <v>5.2509999999999997E-5</v>
+        <v>6.0720000000000001E-5</v>
       </c>
       <c r="I133" s="1">
         <f>B133/A133</f>
-        <v>4.9309999999999999E-6</v>
+        <v>2.7200000000000002E-6</v>
       </c>
       <c r="J133">
         <f>C133/A133</f>
-        <v>1.0139999999999999E-5</v>
+        <v>5.7389999999999996E-6</v>
       </c>
       <c r="K133" s="1">
         <f>D133/A133</f>
-        <v>1.189E-6</v>
+        <v>6.3100000000000003E-8</v>
       </c>
       <c r="L133" s="1">
         <f>E133/A133</f>
-        <v>6.1929999999999998E-6</v>
+        <v>6.1879999999999999E-6</v>
       </c>
       <c r="M133" s="1">
         <f>F133/A133</f>
-        <v>6.1700000000000003E-8</v>
+        <v>2.0900000000000002E-8</v>
       </c>
       <c r="N133" s="1">
         <f>G133/A133</f>
-        <v>5.2509999999999994E-6</v>
+        <v>6.0720000000000005E-6</v>
       </c>
     </row>
     <row r="134" spans="1:14">
@@ -7772,46 +7768,46 @@
         <v>26</v>
       </c>
       <c r="B134" s="1">
-        <v>4.7490000000000001E-5</v>
+        <v>2.7019999999999999E-5</v>
       </c>
       <c r="C134" s="1">
-        <v>2.7670000000000001E-5</v>
+        <v>8.551E-6</v>
       </c>
       <c r="D134" s="1">
-        <v>7.1430000000000001E-6</v>
+        <v>9.5300000000000002E-7</v>
       </c>
       <c r="E134" s="1">
-        <v>8.4249999999999998E-6</v>
+        <v>1.824E-6</v>
       </c>
       <c r="F134" s="1">
-        <v>1.223E-6</v>
+        <v>3.6800000000000001E-7</v>
       </c>
       <c r="G134" s="1">
-        <v>4.1409999999999998E-6</v>
+        <v>9.1200000000000001E-7</v>
       </c>
       <c r="I134" s="1">
         <f t="shared" ref="I134:I152" si="0">B134/A134</f>
-        <v>1.8265384615384617E-6</v>
+        <v>1.0392307692307691E-6</v>
       </c>
       <c r="J134">
         <f t="shared" ref="J134:J152" si="1">C134/A134</f>
-        <v>1.0642307692307693E-6</v>
+        <v>3.288846153846154E-7</v>
       </c>
       <c r="K134" s="1">
         <f t="shared" ref="K134:K152" si="2">D134/A134</f>
-        <v>2.7473076923076921E-7</v>
+        <v>3.6653846153846153E-8</v>
       </c>
       <c r="L134" s="1">
         <f t="shared" ref="L134:L152" si="3">E134/A134</f>
-        <v>3.2403846153846156E-7</v>
+        <v>7.0153846153846149E-8</v>
       </c>
       <c r="M134" s="1">
         <f t="shared" ref="M134:M152" si="4">F134/A134</f>
-        <v>4.7038461538461537E-8</v>
+        <v>1.4153846153846154E-8</v>
       </c>
       <c r="N134" s="1">
         <f t="shared" ref="N134:N152" si="5">G134/A134</f>
-        <v>1.5926923076923076E-7</v>
+        <v>3.5076923076923074E-8</v>
       </c>
     </row>
     <row r="135" spans="1:14">
@@ -7819,46 +7815,46 @@
         <v>58</v>
       </c>
       <c r="B135">
-        <v>2.264E-4</v>
-      </c>
-      <c r="C135">
-        <v>1.2540000000000001E-4</v>
+        <v>1.6139999999999999E-4</v>
+      </c>
+      <c r="C135" s="1">
+        <v>3.6720000000000001E-5</v>
       </c>
       <c r="D135" s="1">
-        <v>4.108E-5</v>
+        <v>2.2670000000000001E-5</v>
       </c>
       <c r="E135" s="1">
-        <v>2.703E-5</v>
+        <v>6.6390000000000003E-6</v>
       </c>
       <c r="F135" s="1">
-        <v>6.4230000000000002E-6</v>
+        <v>1.753E-6</v>
       </c>
       <c r="G135" s="1">
-        <v>6.9160000000000004E-6</v>
+        <v>1.916E-6</v>
       </c>
       <c r="I135" s="1">
         <f t="shared" si="0"/>
-        <v>3.9034482758620691E-6</v>
+        <v>2.7827586206896552E-6</v>
       </c>
       <c r="J135">
         <f t="shared" si="1"/>
-        <v>2.1620689655172415E-6</v>
+        <v>6.3310344827586205E-7</v>
       </c>
       <c r="K135" s="1">
         <f t="shared" si="2"/>
-        <v>7.0827586206896549E-7</v>
+        <v>3.9086206896551727E-7</v>
       </c>
       <c r="L135" s="1">
         <f t="shared" si="3"/>
-        <v>4.6603448275862071E-7</v>
+        <v>1.1446551724137932E-7</v>
       </c>
       <c r="M135" s="1">
         <f t="shared" si="4"/>
-        <v>1.1074137931034484E-7</v>
+        <v>3.0224137931034482E-8</v>
       </c>
       <c r="N135" s="1">
         <f t="shared" si="5"/>
-        <v>1.1924137931034483E-7</v>
+        <v>3.3034482758620692E-8</v>
       </c>
     </row>
     <row r="136" spans="1:14">
@@ -7866,46 +7862,46 @@
         <v>106</v>
       </c>
       <c r="B136">
-        <v>7.5929999999999997E-4</v>
+        <v>4.8060000000000003E-4</v>
       </c>
       <c r="C136">
-        <v>6.2560000000000003E-4</v>
-      </c>
-      <c r="D136">
-        <v>1.663E-4</v>
-      </c>
-      <c r="E136">
-        <v>1.182E-4</v>
+        <v>1.56E-4</v>
+      </c>
+      <c r="D136" s="1">
+        <v>3.5939999999999998E-5</v>
+      </c>
+      <c r="E136" s="1">
+        <v>2.2580000000000001E-5</v>
       </c>
       <c r="F136" s="1">
-        <v>2.0489999999999999E-5</v>
+        <v>6.0789999999999997E-6</v>
       </c>
       <c r="G136" s="1">
-        <v>1.34E-5</v>
+        <v>3.9870000000000001E-6</v>
       </c>
       <c r="I136" s="1">
         <f t="shared" si="0"/>
-        <v>7.1632075471698113E-6</v>
+        <v>4.5339622641509434E-6</v>
       </c>
       <c r="J136">
         <f t="shared" si="1"/>
-        <v>5.9018867924528303E-6</v>
+        <v>1.4716981132075471E-6</v>
       </c>
       <c r="K136" s="1">
         <f t="shared" si="2"/>
-        <v>1.5688679245283019E-6</v>
+        <v>3.390566037735849E-7</v>
       </c>
       <c r="L136" s="1">
         <f t="shared" si="3"/>
-        <v>1.1150943396226415E-6</v>
+        <v>2.1301886792452831E-7</v>
       </c>
       <c r="M136" s="1">
         <f t="shared" si="4"/>
-        <v>1.9330188679245282E-7</v>
+        <v>5.7349056603773579E-8</v>
       </c>
       <c r="N136" s="1">
         <f t="shared" si="5"/>
-        <v>1.2641509433962266E-7</v>
+        <v>3.7613207547169815E-8</v>
       </c>
     </row>
     <row r="137" spans="1:14">
@@ -7913,46 +7909,46 @@
         <v>170</v>
       </c>
       <c r="B137">
-        <v>1.9629999999999999E-3</v>
+        <v>1.194E-3</v>
       </c>
       <c r="C137">
-        <v>9.8670000000000008E-4</v>
+        <v>3.7070000000000001E-4</v>
       </c>
       <c r="D137">
-        <v>3.7940000000000001E-4</v>
-      </c>
-      <c r="E137">
-        <v>2.352E-4</v>
+        <v>1.6349999999999999E-4</v>
+      </c>
+      <c r="E137" s="1">
+        <v>6.8590000000000006E-5</v>
       </c>
       <c r="F137" s="1">
-        <v>4.9280000000000003E-5</v>
+        <v>1.7010000000000001E-5</v>
       </c>
       <c r="G137" s="1">
-        <v>2.7630000000000001E-5</v>
+        <v>8.1489999999999994E-6</v>
       </c>
       <c r="I137" s="1">
         <f t="shared" si="0"/>
-        <v>1.1547058823529411E-5</v>
+        <v>7.0235294117647054E-6</v>
       </c>
       <c r="J137">
         <f t="shared" si="1"/>
-        <v>5.8041176470588241E-6</v>
+        <v>2.1805882352941179E-6</v>
       </c>
       <c r="K137" s="1">
         <f t="shared" si="2"/>
-        <v>2.2317647058823531E-6</v>
+        <v>9.6176470588235298E-7</v>
       </c>
       <c r="L137" s="1">
         <f t="shared" si="3"/>
-        <v>1.3835294117647058E-6</v>
+        <v>4.0347058823529417E-7</v>
       </c>
       <c r="M137" s="1">
         <f t="shared" si="4"/>
-        <v>2.8988235294117648E-7</v>
+        <v>1.0005882352941177E-7</v>
       </c>
       <c r="N137" s="1">
         <f t="shared" si="5"/>
-        <v>1.6252941176470589E-7</v>
+        <v>4.7935294117647053E-8</v>
       </c>
     </row>
     <row r="138" spans="1:14">
@@ -7960,46 +7956,46 @@
         <v>250</v>
       </c>
       <c r="B138">
-        <v>4.2469999999999999E-3</v>
+        <v>2.526E-3</v>
       </c>
       <c r="C138">
-        <v>2.1189999999999998E-3</v>
+        <v>7.2150000000000003E-4</v>
       </c>
       <c r="D138">
-        <v>7.7890000000000001E-4</v>
+        <v>3.1399999999999999E-4</v>
       </c>
       <c r="E138">
-        <v>4.908E-4</v>
-      </c>
-      <c r="F138">
-        <v>1.136E-4</v>
+        <v>1.9760000000000001E-4</v>
+      </c>
+      <c r="F138" s="1">
+        <v>3.7150000000000002E-5</v>
       </c>
       <c r="G138" s="1">
-        <v>5.3879999999999999E-5</v>
+        <v>1.5840000000000001E-5</v>
       </c>
       <c r="I138" s="1">
         <f t="shared" si="0"/>
-        <v>1.6988000000000001E-5</v>
+        <v>1.0104E-5</v>
       </c>
       <c r="J138">
         <f t="shared" si="1"/>
-        <v>8.4759999999999998E-6</v>
+        <v>2.886E-6</v>
       </c>
       <c r="K138" s="1">
         <f t="shared" si="2"/>
-        <v>3.1155999999999999E-6</v>
+        <v>1.2559999999999999E-6</v>
       </c>
       <c r="L138" s="1">
         <f t="shared" si="3"/>
-        <v>1.9632000000000001E-6</v>
+        <v>7.9039999999999998E-7</v>
       </c>
       <c r="M138" s="1">
         <f t="shared" si="4"/>
-        <v>4.5439999999999999E-7</v>
+        <v>1.4859999999999999E-7</v>
       </c>
       <c r="N138" s="1">
         <f t="shared" si="5"/>
-        <v>2.1551999999999999E-7</v>
+        <v>6.3360000000000006E-8</v>
       </c>
     </row>
     <row r="139" spans="1:14">
@@ -8007,46 +8003,46 @@
         <v>346</v>
       </c>
       <c r="B139">
-        <v>8.1119999999999994E-3</v>
+        <v>4.8110000000000002E-3</v>
       </c>
       <c r="C139">
-        <v>4.078E-3</v>
+        <v>1.364E-3</v>
       </c>
       <c r="D139">
-        <v>1.5219999999999999E-3</v>
+        <v>6.0769999999999997E-4</v>
       </c>
       <c r="E139">
-        <v>9.3070000000000002E-4</v>
-      </c>
-      <c r="F139">
-        <v>2.251E-4</v>
+        <v>3.3750000000000002E-4</v>
+      </c>
+      <c r="F139" s="1">
+        <v>8.5370000000000004E-5</v>
       </c>
       <c r="G139" s="1">
-        <v>9.5779999999999994E-5</v>
+        <v>2.8770000000000001E-5</v>
       </c>
       <c r="I139" s="1">
         <f t="shared" si="0"/>
-        <v>2.344508670520231E-5</v>
+        <v>1.3904624277456648E-5</v>
       </c>
       <c r="J139">
         <f t="shared" si="1"/>
-        <v>1.1786127167630058E-5</v>
+        <v>3.9421965317919076E-6</v>
       </c>
       <c r="K139" s="1">
         <f t="shared" si="2"/>
-        <v>4.398843930635838E-6</v>
+        <v>1.7563583815028902E-6</v>
       </c>
       <c r="L139" s="1">
         <f t="shared" si="3"/>
-        <v>2.6898843930635837E-6</v>
+        <v>9.7543352601156081E-7</v>
       </c>
       <c r="M139" s="1">
         <f t="shared" si="4"/>
-        <v>6.5057803468208091E-7</v>
+        <v>2.4673410404624281E-7</v>
       </c>
       <c r="N139" s="1">
         <f t="shared" si="5"/>
-        <v>2.7682080924855492E-7</v>
+        <v>8.3150289017341044E-8</v>
       </c>
     </row>
     <row r="140" spans="1:14">
@@ -8054,46 +8050,46 @@
         <v>458</v>
       </c>
       <c r="B140">
-        <v>1.4239999999999999E-2</v>
+        <v>8.4220000000000007E-3</v>
       </c>
       <c r="C140">
-        <v>6.8900000000000003E-3</v>
+        <v>2.317E-3</v>
       </c>
       <c r="D140">
-        <v>2.6849999999999999E-3</v>
+        <v>1.0690000000000001E-3</v>
       </c>
       <c r="E140">
-        <v>1.591E-3</v>
+        <v>5.2380000000000005E-4</v>
       </c>
       <c r="F140">
-        <v>2.8350000000000001E-4</v>
-      </c>
-      <c r="G140">
-        <v>1.718E-4</v>
+        <v>1.371E-4</v>
+      </c>
+      <c r="G140" s="1">
+        <v>8.5539999999999998E-5</v>
       </c>
       <c r="I140" s="1">
         <f t="shared" si="0"/>
-        <v>3.1091703056768555E-5</v>
+        <v>1.8388646288209609E-5</v>
       </c>
       <c r="J140">
         <f t="shared" si="1"/>
-        <v>1.5043668122270743E-5</v>
+        <v>5.0589519650655022E-6</v>
       </c>
       <c r="K140" s="1">
         <f t="shared" si="2"/>
-        <v>5.8624454148471615E-6</v>
+        <v>2.3340611353711791E-6</v>
       </c>
       <c r="L140" s="1">
         <f t="shared" si="3"/>
-        <v>3.4737991266375546E-6</v>
+        <v>1.1436681222707424E-6</v>
       </c>
       <c r="M140" s="1">
         <f t="shared" si="4"/>
-        <v>6.1899563318777298E-7</v>
+        <v>2.9934497816593887E-7</v>
       </c>
       <c r="N140" s="1">
         <f t="shared" si="5"/>
-        <v>3.7510917030567686E-7</v>
+        <v>1.8676855895196506E-7</v>
       </c>
     </row>
     <row r="141" spans="1:14">
@@ -8101,46 +8097,46 @@
         <v>586</v>
       </c>
       <c r="B141">
-        <v>2.3290000000000002E-2</v>
+        <v>1.376E-2</v>
       </c>
       <c r="C141">
-        <v>1.055E-2</v>
+        <v>3.7759999999999998E-3</v>
       </c>
       <c r="D141">
-        <v>4.0239999999999998E-3</v>
+        <v>1.843E-3</v>
       </c>
       <c r="E141">
-        <v>2.5500000000000002E-3</v>
+        <v>8.6950000000000005E-4</v>
       </c>
       <c r="F141">
-        <v>4.818E-4</v>
-      </c>
-      <c r="G141">
-        <v>3.1470000000000001E-4</v>
+        <v>2.0469999999999999E-4</v>
+      </c>
+      <c r="G141" s="1">
+        <v>8.3159999999999997E-5</v>
       </c>
       <c r="I141" s="1">
         <f t="shared" si="0"/>
-        <v>3.9744027303754266E-5</v>
+        <v>2.3481228668941978E-5</v>
       </c>
       <c r="J141">
         <f t="shared" si="1"/>
-        <v>1.8003412969283279E-5</v>
+        <v>6.4436860068259385E-6</v>
       </c>
       <c r="K141" s="1">
         <f t="shared" si="2"/>
-        <v>6.8668941979522178E-6</v>
+        <v>3.1450511945392491E-6</v>
       </c>
       <c r="L141" s="1">
         <f t="shared" si="3"/>
-        <v>4.3515358361774743E-6</v>
+        <v>1.483788395904437E-6</v>
       </c>
       <c r="M141" s="1">
         <f t="shared" si="4"/>
-        <v>8.2218430034129695E-7</v>
+        <v>3.4931740614334468E-7</v>
       </c>
       <c r="N141" s="1">
         <f t="shared" si="5"/>
-        <v>5.3703071672354946E-7</v>
+        <v>1.4191126279863481E-7</v>
       </c>
     </row>
     <row r="142" spans="1:14">
@@ -8148,46 +8144,46 @@
         <v>730</v>
       </c>
       <c r="B142">
-        <v>3.6080000000000001E-2</v>
+        <v>2.1360000000000001E-2</v>
       </c>
       <c r="C142">
-        <v>1.502E-2</v>
+        <v>5.7460000000000002E-3</v>
       </c>
       <c r="D142">
-        <v>5.9760000000000004E-3</v>
+        <v>3.405E-3</v>
       </c>
       <c r="E142">
-        <v>3.9230000000000003E-3</v>
+        <v>1.7229999999999999E-3</v>
       </c>
       <c r="F142">
-        <v>8.9740000000000002E-4</v>
+        <v>3.2939999999999998E-4</v>
       </c>
       <c r="G142">
-        <v>4.4329999999999999E-4</v>
+        <v>1.507E-4</v>
       </c>
       <c r="I142" s="1">
         <f t="shared" si="0"/>
-        <v>4.9424657534246574E-5</v>
+        <v>2.926027397260274E-5</v>
       </c>
       <c r="J142">
         <f t="shared" si="1"/>
-        <v>2.0575342465753423E-5</v>
+        <v>7.8712328767123288E-6</v>
       </c>
       <c r="K142" s="1">
         <f t="shared" si="2"/>
-        <v>8.186301369863014E-6</v>
+        <v>4.6643835616438354E-6</v>
       </c>
       <c r="L142" s="1">
         <f t="shared" si="3"/>
-        <v>5.3739726027397266E-6</v>
+        <v>2.3602739726027394E-6</v>
       </c>
       <c r="M142" s="1">
         <f t="shared" si="4"/>
-        <v>1.2293150684931507E-6</v>
+        <v>4.5123287671232877E-7</v>
       </c>
       <c r="N142" s="1">
         <f t="shared" si="5"/>
-        <v>6.0726027397260271E-7</v>
+        <v>2.0643835616438356E-7</v>
       </c>
     </row>
     <row r="143" spans="1:14">
@@ -8195,46 +8191,46 @@
         <v>890</v>
       </c>
       <c r="B143">
-        <v>5.3690000000000002E-2</v>
+        <v>3.1660000000000001E-2</v>
       </c>
       <c r="C143">
-        <v>2.0129999999999999E-2</v>
+        <v>8.3949999999999997E-3</v>
       </c>
       <c r="D143">
-        <v>8.8640000000000004E-3</v>
+        <v>7.4650000000000003E-3</v>
       </c>
       <c r="E143">
-        <v>5.7010000000000003E-3</v>
+        <v>3.7360000000000002E-3</v>
       </c>
       <c r="F143">
-        <v>1.3190000000000001E-3</v>
+        <v>4.7540000000000001E-4</v>
       </c>
       <c r="G143">
-        <v>6.5220000000000002E-4</v>
+        <v>2.8430000000000003E-4</v>
       </c>
       <c r="I143" s="1">
         <f t="shared" si="0"/>
-        <v>6.0325842696629216E-5</v>
+        <v>3.5573033707865166E-5</v>
       </c>
       <c r="J143">
         <f t="shared" si="1"/>
-        <v>2.2617977528089887E-5</v>
+        <v>9.4325842696629216E-6</v>
       </c>
       <c r="K143" s="1">
         <f t="shared" si="2"/>
-        <v>9.9595505617977534E-6</v>
+        <v>8.3876404494382028E-6</v>
       </c>
       <c r="L143" s="1">
         <f t="shared" si="3"/>
-        <v>6.4056179775280899E-6</v>
+        <v>4.1977528089887642E-6</v>
       </c>
       <c r="M143" s="1">
         <f t="shared" si="4"/>
-        <v>1.4820224719101124E-6</v>
+        <v>5.3415730337078658E-7</v>
       </c>
       <c r="N143" s="1">
         <f t="shared" si="5"/>
-        <v>7.3280898876404499E-7</v>
+        <v>3.1943820224719105E-7</v>
       </c>
     </row>
     <row r="144" spans="1:14">
@@ -8242,46 +8238,46 @@
         <v>1066</v>
       </c>
       <c r="B144">
-        <v>7.6969999999999997E-2</v>
+        <v>4.5440000000000001E-2</v>
       </c>
       <c r="C144">
-        <v>2.5669999999999998E-2</v>
+        <v>1.206E-2</v>
       </c>
       <c r="D144">
-        <v>1.4319999999999999E-2</v>
+        <v>1.3769999999999999E-2</v>
       </c>
       <c r="E144">
-        <v>9.1529999999999997E-3</v>
+        <v>6.881E-3</v>
       </c>
       <c r="F144">
-        <v>1.8730000000000001E-3</v>
+        <v>7.3729999999999998E-4</v>
       </c>
       <c r="G144">
-        <v>8.9139999999999998E-4</v>
+        <v>5.396E-4</v>
       </c>
       <c r="I144" s="1">
         <f t="shared" si="0"/>
-        <v>7.2204502814258913E-5</v>
+        <v>4.2626641651031897E-5</v>
       </c>
       <c r="J144">
         <f t="shared" si="1"/>
-        <v>2.4080675422138835E-5</v>
+        <v>1.1313320825515947E-5</v>
       </c>
       <c r="K144" s="1">
         <f t="shared" si="2"/>
-        <v>1.3433395872420262E-5</v>
+        <v>1.2917448405253282E-5</v>
       </c>
       <c r="L144" s="1">
         <f t="shared" si="3"/>
-        <v>8.5863039399624762E-6</v>
+        <v>6.454971857410882E-6</v>
       </c>
       <c r="M144" s="1">
         <f t="shared" si="4"/>
-        <v>1.7570356472795498E-6</v>
+        <v>6.9165103189493436E-7</v>
       </c>
       <c r="N144" s="1">
         <f t="shared" si="5"/>
-        <v>8.3621013133208249E-7</v>
+        <v>5.0619136960600374E-7</v>
       </c>
     </row>
     <row r="145" spans="1:14">
@@ -8289,46 +8285,46 @@
         <v>1258</v>
       </c>
       <c r="B145">
-        <v>0.1071</v>
+        <v>6.3539999999999999E-2</v>
       </c>
       <c r="C145">
-        <v>3.141E-2</v>
+        <v>1.6750000000000001E-2</v>
       </c>
       <c r="D145">
-        <v>2.6370000000000001E-2</v>
+        <v>2.3050000000000001E-2</v>
       </c>
       <c r="E145">
-        <v>1.6240000000000001E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="F145">
-        <v>2.5890000000000002E-3</v>
+        <v>1.0529999999999999E-3</v>
       </c>
       <c r="G145">
-        <v>1.227E-3</v>
+        <v>8.9650000000000005E-4</v>
       </c>
       <c r="I145" s="1">
         <f t="shared" si="0"/>
-        <v>8.5135135135135142E-5</v>
+        <v>5.0508744038155805E-5</v>
       </c>
       <c r="J145">
         <f t="shared" si="1"/>
-        <v>2.4968203497615262E-5</v>
+        <v>1.3314785373608903E-5</v>
       </c>
       <c r="K145" s="1">
         <f t="shared" si="2"/>
-        <v>2.0961844197138316E-5</v>
+        <v>1.8322734499205088E-5</v>
       </c>
       <c r="L145" s="1">
         <f t="shared" si="3"/>
-        <v>1.2909379968203499E-5</v>
+        <v>8.9825119236883931E-6</v>
       </c>
       <c r="M145" s="1">
         <f t="shared" si="4"/>
-        <v>2.0580286168521466E-6</v>
+        <v>8.3704292527821936E-7</v>
       </c>
       <c r="N145" s="1">
         <f t="shared" si="5"/>
-        <v>9.7535771065182841E-7</v>
+        <v>7.1263910969793329E-7</v>
       </c>
     </row>
     <row r="146" spans="1:14">
@@ -8336,46 +8332,46 @@
         <v>1466</v>
       </c>
       <c r="B146">
-        <v>0.14580000000000001</v>
+        <v>8.6069999999999994E-2</v>
       </c>
       <c r="C146">
-        <v>3.7859999999999998E-2</v>
+        <v>2.283E-2</v>
       </c>
       <c r="D146">
-        <v>4.3880000000000002E-2</v>
+        <v>3.5709999999999999E-2</v>
       </c>
       <c r="E146">
-        <v>2.741E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="F146">
-        <v>3.754E-3</v>
+        <v>1.4859999999999999E-3</v>
       </c>
       <c r="G146">
-        <v>1.7359999999999999E-3</v>
+        <v>1.3619999999999999E-3</v>
       </c>
       <c r="I146" s="1">
         <f t="shared" si="0"/>
-        <v>9.9454297407912696E-5</v>
+        <v>5.8710777626193722E-5</v>
       </c>
       <c r="J146">
         <f t="shared" si="1"/>
-        <v>2.5825375170532059E-5</v>
+        <v>1.5572987721691677E-5</v>
       </c>
       <c r="K146" s="1">
         <f t="shared" si="2"/>
-        <v>2.9931787175989087E-5</v>
+        <v>2.4358799454297406E-5</v>
       </c>
       <c r="L146" s="1">
         <f t="shared" si="3"/>
-        <v>1.8697135061391542E-5</v>
+        <v>1.159618008185539E-5</v>
       </c>
       <c r="M146" s="1">
         <f t="shared" si="4"/>
-        <v>2.5607094133697134E-6</v>
+        <v>1.0136425648021827E-6</v>
       </c>
       <c r="N146" s="1">
         <f t="shared" si="5"/>
-        <v>1.1841746248294679E-6</v>
+        <v>9.290586630286493E-7</v>
       </c>
     </row>
     <row r="147" spans="1:14">
@@ -8383,46 +8379,46 @@
         <v>1690</v>
       </c>
       <c r="B147">
-        <v>0.19489999999999999</v>
+        <v>0.1144</v>
       </c>
       <c r="C147">
-        <v>4.9349999999999998E-2</v>
+        <v>3.0210000000000001E-2</v>
       </c>
       <c r="D147">
-        <v>6.7280000000000006E-2</v>
+        <v>5.2319999999999998E-2</v>
       </c>
       <c r="E147">
-        <v>4.19E-2</v>
+        <v>2.4230000000000002E-2</v>
       </c>
       <c r="F147">
-        <v>5.5719999999999997E-3</v>
+        <v>2.052E-3</v>
       </c>
       <c r="G147">
-        <v>2.32E-3</v>
+        <v>1.892E-3</v>
       </c>
       <c r="I147" s="1">
         <f t="shared" si="0"/>
-        <v>1.1532544378698224E-4</v>
+        <v>6.7692307692307697E-5</v>
       </c>
       <c r="J147">
         <f t="shared" si="1"/>
-        <v>2.9201183431952662E-5</v>
+        <v>1.7875739644970414E-5</v>
       </c>
       <c r="K147" s="1">
         <f t="shared" si="2"/>
-        <v>3.9810650887573968E-5</v>
+        <v>3.0958579881656803E-5</v>
       </c>
       <c r="L147" s="1">
         <f t="shared" si="3"/>
-        <v>2.4792899408284024E-5</v>
+        <v>1.4337278106508876E-5</v>
       </c>
       <c r="M147" s="1">
         <f t="shared" si="4"/>
-        <v>3.2970414201183431E-6</v>
+        <v>1.2142011834319526E-6</v>
       </c>
       <c r="N147" s="1">
         <f t="shared" si="5"/>
-        <v>1.3727810650887574E-6</v>
+        <v>1.1195266272189349E-6</v>
       </c>
     </row>
     <row r="148" spans="1:14">
@@ -8430,46 +8426,46 @@
         <v>1930</v>
       </c>
       <c r="B148">
-        <v>0.25459999999999999</v>
+        <v>0.1492</v>
       </c>
       <c r="C148">
-        <v>6.4259999999999998E-2</v>
+        <v>3.925E-2</v>
       </c>
       <c r="D148">
-        <v>9.7710000000000005E-2</v>
+        <v>7.3370000000000005E-2</v>
       </c>
       <c r="E148">
-        <v>5.8880000000000002E-2</v>
+        <v>3.3300000000000003E-2</v>
       </c>
       <c r="F148">
-        <v>7.9070000000000008E-3</v>
+        <v>2.7989999999999998E-3</v>
       </c>
       <c r="G148">
-        <v>3.2000000000000002E-3</v>
+        <v>2.5600000000000002E-3</v>
       </c>
       <c r="I148" s="1">
         <f t="shared" si="0"/>
-        <v>1.3191709844559586E-4</v>
+        <v>7.7305699481865285E-5</v>
       </c>
       <c r="J148">
         <f t="shared" si="1"/>
-        <v>3.3295336787564768E-5</v>
+        <v>2.033678756476684E-5</v>
       </c>
       <c r="K148" s="1">
         <f t="shared" si="2"/>
-        <v>5.0626943005181347E-5</v>
+        <v>3.801554404145078E-5</v>
       </c>
       <c r="L148" s="1">
         <f t="shared" si="3"/>
-        <v>3.0507772020725388E-5</v>
+        <v>1.7253886010362695E-5</v>
       </c>
       <c r="M148" s="1">
         <f t="shared" si="4"/>
-        <v>4.0968911917098454E-6</v>
+        <v>1.4502590673575129E-6</v>
       </c>
       <c r="N148" s="1">
         <f t="shared" si="5"/>
-        <v>1.6580310880829016E-6</v>
+        <v>1.3264248704663214E-6</v>
       </c>
     </row>
     <row r="149" spans="1:14">
@@ -8477,46 +8473,46 @@
         <v>2186</v>
       </c>
       <c r="B149">
-        <v>0.32669999999999999</v>
+        <v>0.1923</v>
       </c>
       <c r="C149">
-        <v>8.2250000000000004E-2</v>
+        <v>5.0319999999999997E-2</v>
       </c>
       <c r="D149">
-        <v>0.1363</v>
+        <v>9.937E-2</v>
       </c>
       <c r="E149">
-        <v>8.2869999999999999E-2</v>
+        <v>4.4310000000000002E-2</v>
       </c>
       <c r="F149">
-        <v>1.0030000000000001E-2</v>
+        <v>3.5460000000000001E-3</v>
       </c>
       <c r="G149">
-        <v>4.5209999999999998E-3</v>
+        <v>3.2889999999999998E-3</v>
       </c>
       <c r="I149" s="1">
         <f t="shared" si="0"/>
-        <v>1.4945105215004575E-4</v>
+        <v>8.7968892955169262E-5</v>
       </c>
       <c r="J149">
         <f t="shared" si="1"/>
-        <v>3.7625800548947852E-5</v>
+        <v>2.3019213174748396E-5</v>
       </c>
       <c r="K149" s="1">
         <f t="shared" si="2"/>
-        <v>6.2351326623970722E-5</v>
+        <v>4.5457456541628546E-5</v>
       </c>
       <c r="L149" s="1">
         <f t="shared" si="3"/>
-        <v>3.7909423604757546E-5</v>
+        <v>2.0269899359560842E-5</v>
       </c>
       <c r="M149" s="1">
         <f t="shared" si="4"/>
-        <v>4.5882891125343093E-6</v>
+        <v>1.6221408966148216E-6</v>
       </c>
       <c r="N149" s="1">
         <f t="shared" si="5"/>
-        <v>2.0681610247026532E-6</v>
+        <v>1.5045745654162853E-6</v>
       </c>
     </row>
     <row r="150" spans="1:14">
@@ -8524,46 +8520,46 @@
         <v>2458</v>
       </c>
       <c r="B150">
-        <v>0.41360000000000002</v>
+        <v>0.2417</v>
       </c>
       <c r="C150">
-        <v>0.10390000000000001</v>
+        <v>6.3640000000000002E-2</v>
       </c>
       <c r="D150">
-        <v>0.1842</v>
+        <v>0.13120000000000001</v>
       </c>
       <c r="E150">
-        <v>0.1113</v>
+        <v>5.6980000000000003E-2</v>
       </c>
       <c r="F150">
-        <v>1.226E-2</v>
+        <v>4.4619999999999998E-3</v>
       </c>
       <c r="G150">
-        <v>6.3229999999999996E-3</v>
+        <v>4.2779999999999997E-3</v>
       </c>
       <c r="I150" s="1">
         <f t="shared" si="0"/>
-        <v>1.6826688364524005E-4</v>
+        <v>9.8331977217249792E-5</v>
       </c>
       <c r="J150">
         <f t="shared" si="1"/>
-        <v>4.2270138323840521E-5</v>
+        <v>2.5890968266883645E-5</v>
       </c>
       <c r="K150" s="1">
         <f t="shared" si="2"/>
-        <v>7.4938974776240852E-5</v>
+        <v>5.3376729048006513E-5</v>
       </c>
       <c r="L150" s="1">
         <f t="shared" si="3"/>
-        <v>4.5280716029292106E-5</v>
+        <v>2.3181448331977219E-5</v>
       </c>
       <c r="M150" s="1">
         <f t="shared" si="4"/>
-        <v>4.9877949552481692E-6</v>
+        <v>1.8152969894222944E-6</v>
       </c>
       <c r="N150" s="1">
         <f t="shared" si="5"/>
-        <v>2.5724165988608625E-6</v>
+        <v>1.7404393816110658E-6</v>
       </c>
     </row>
     <row r="151" spans="1:14">
@@ -8571,46 +8567,46 @@
         <v>2746</v>
       </c>
       <c r="B151">
-        <v>0.51580000000000004</v>
+        <v>0.30230000000000001</v>
       </c>
       <c r="C151">
-        <v>0.12989999999999999</v>
+        <v>7.9689999999999997E-2</v>
       </c>
       <c r="D151">
-        <v>0.24229999999999999</v>
+        <v>0.17030000000000001</v>
       </c>
       <c r="E151">
-        <v>0.14449999999999999</v>
+        <v>7.3709999999999998E-2</v>
       </c>
       <c r="F151">
-        <v>1.4800000000000001E-2</v>
+        <v>5.6080000000000001E-3</v>
       </c>
       <c r="G151">
-        <v>8.8500000000000002E-3</v>
+        <v>5.3270000000000001E-3</v>
       </c>
       <c r="I151" s="1">
         <f t="shared" si="0"/>
-        <v>1.8783685360524401E-4</v>
+        <v>1.1008739985433358E-4</v>
       </c>
       <c r="J151">
         <f t="shared" si="1"/>
-        <v>4.7305171158048064E-5</v>
+        <v>2.9020393299344501E-5</v>
       </c>
       <c r="K151" s="1">
         <f t="shared" si="2"/>
-        <v>8.8237436270939543E-5</v>
+        <v>6.2017479970866721E-5</v>
       </c>
       <c r="L151" s="1">
         <f t="shared" si="3"/>
-        <v>5.2621995630007282E-5</v>
+        <v>2.6842680262199562E-5</v>
       </c>
       <c r="M151" s="1">
         <f t="shared" si="4"/>
-        <v>5.3896576839038606E-6</v>
+        <v>2.0422432629278951E-6</v>
       </c>
       <c r="N151" s="1">
         <f t="shared" si="5"/>
-        <v>3.2228696285506193E-6</v>
+        <v>1.9399126001456666E-6</v>
       </c>
     </row>
     <row r="152" spans="1:14">
@@ -8618,51 +8614,51 @@
         <v>3050</v>
       </c>
       <c r="B152">
-        <v>0.63629999999999998</v>
+        <v>0.37309999999999999</v>
       </c>
       <c r="C152">
-        <v>0.1608</v>
+        <v>9.8769999999999997E-2</v>
       </c>
       <c r="D152">
-        <v>0.31240000000000001</v>
+        <v>0.21510000000000001</v>
       </c>
       <c r="E152">
-        <v>0.1835</v>
+        <v>9.3539999999999998E-2</v>
       </c>
       <c r="F152">
-        <v>1.77E-2</v>
+        <v>6.986E-3</v>
       </c>
       <c r="G152">
-        <v>1.15E-2</v>
+        <v>6.5820000000000002E-3</v>
       </c>
       <c r="I152" s="1">
         <f t="shared" si="0"/>
-        <v>2.0862295081967212E-4</v>
+        <v>1.2232786885245901E-4</v>
       </c>
       <c r="J152">
         <f t="shared" si="1"/>
-        <v>5.2721311475409835E-5</v>
+        <v>3.238360655737705E-5</v>
       </c>
       <c r="K152" s="1">
         <f t="shared" si="2"/>
-        <v>1.0242622950819672E-4</v>
+        <v>7.0524590163934436E-5</v>
       </c>
       <c r="L152" s="1">
         <f t="shared" si="3"/>
-        <v>6.0163934426229508E-5</v>
+        <v>3.0668852459016393E-5</v>
       </c>
       <c r="M152" s="1">
         <f t="shared" si="4"/>
-        <v>5.8032786885245901E-6</v>
+        <v>2.2904918032786886E-6</v>
       </c>
       <c r="N152" s="1">
         <f t="shared" si="5"/>
-        <v>3.7704918032786884E-6</v>
+        <v>2.158032786885246E-6</v>
       </c>
     </row>
     <row r="154" spans="1:14">
       <c r="A154" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -8676,21 +8672,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE22075-D108-5648-8EC8-7F00361AFFBB}">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="G50" sqref="G50:J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -8933,28 +8923,28 @@
         <v>30</v>
       </c>
       <c r="B50" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" t="s">
         <v>39</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>40</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>41</v>
       </c>
-      <c r="E50" t="s">
-        <v>42</v>
-      </c>
       <c r="G50" t="s">
+        <v>38</v>
+      </c>
+      <c r="H50" t="s">
         <v>39</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>40</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>41</v>
-      </c>
-      <c r="J50" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -8962,32 +8952,32 @@
         <v>80</v>
       </c>
       <c r="B51">
-        <v>5.5349999999999996E-4</v>
+        <v>3.2860000000000002E-4</v>
       </c>
       <c r="C51">
-        <v>3.3139999999999998E-4</v>
+        <v>1.5029999999999999E-4</v>
       </c>
       <c r="D51">
-        <v>4.5150000000000002E-4</v>
+        <v>2.5819999999999999E-4</v>
       </c>
       <c r="E51">
-        <v>1.1900000000000001E-3</v>
+        <v>3.6689999999999997E-4</v>
       </c>
       <c r="G51">
         <f>B51/A51</f>
-        <v>6.9187499999999996E-6</v>
+        <v>4.1075000000000001E-6</v>
       </c>
       <c r="H51">
         <f>C51/A51</f>
-        <v>4.1424999999999997E-6</v>
+        <v>1.87875E-6</v>
       </c>
       <c r="I51">
         <f>D51/A51</f>
-        <v>5.64375E-6</v>
+        <v>3.2275E-6</v>
       </c>
       <c r="J51">
         <f>E51/A51</f>
-        <v>1.4875000000000001E-5</v>
+        <v>4.5862499999999995E-6</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -8995,32 +8985,32 @@
         <v>96</v>
       </c>
       <c r="B52">
-        <v>9.8320000000000005E-4</v>
+        <v>6.2980000000000002E-4</v>
       </c>
       <c r="C52">
-        <v>5.0020000000000002E-4</v>
+        <v>1.7110000000000001E-4</v>
       </c>
       <c r="D52">
-        <v>1.4139999999999999E-3</v>
+        <v>4.3570000000000002E-4</v>
       </c>
       <c r="E52">
-        <v>1.8140000000000001E-3</v>
+        <v>5.0639999999999995E-4</v>
       </c>
       <c r="G52">
         <f t="shared" ref="G52:G60" si="0">B52/A52</f>
-        <v>1.0241666666666667E-5</v>
+        <v>6.5604166666666666E-6</v>
       </c>
       <c r="H52">
         <f t="shared" ref="H52:H60" si="1">C52/A52</f>
-        <v>5.2104166666666668E-6</v>
+        <v>1.7822916666666667E-6</v>
       </c>
       <c r="I52">
         <f t="shared" ref="I52:I60" si="2">D52/A52</f>
-        <v>1.4729166666666666E-5</v>
+        <v>4.5385416666666666E-6</v>
       </c>
       <c r="J52">
         <f t="shared" ref="J52:J60" si="3">E52/A52</f>
-        <v>1.8895833333333333E-5</v>
+        <v>5.2749999999999995E-6</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -9028,32 +9018,32 @@
         <v>128</v>
       </c>
       <c r="B53">
-        <v>2.441E-3</v>
+        <v>1.6410000000000001E-3</v>
       </c>
       <c r="C53">
-        <v>1.2869999999999999E-3</v>
+        <v>4.618E-4</v>
       </c>
       <c r="D53">
-        <v>3.3500000000000001E-3</v>
+        <v>1.01E-3</v>
       </c>
       <c r="E53">
-        <v>3.6440000000000001E-3</v>
+        <v>1.0629999999999999E-3</v>
       </c>
       <c r="G53">
         <f t="shared" si="0"/>
-        <v>1.90703125E-5</v>
+        <v>1.2820312500000001E-5</v>
       </c>
       <c r="H53">
         <f t="shared" si="1"/>
-        <v>1.00546875E-5</v>
+        <v>3.6078125E-6</v>
       </c>
       <c r="I53">
         <f t="shared" si="2"/>
-        <v>2.6171875000000001E-5</v>
+        <v>7.8906250000000004E-6</v>
       </c>
       <c r="J53">
         <f t="shared" si="3"/>
-        <v>2.8468750000000001E-5</v>
+        <v>8.3046874999999994E-6</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -9061,32 +9051,32 @@
         <v>176</v>
       </c>
       <c r="B54">
-        <v>6.3680000000000004E-3</v>
+        <v>4.3280000000000002E-3</v>
       </c>
       <c r="C54">
-        <v>3.2230000000000002E-3</v>
+        <v>1.127E-3</v>
       </c>
       <c r="D54">
-        <v>8.0929999999999995E-3</v>
+        <v>2.5739999999999999E-3</v>
       </c>
       <c r="E54">
-        <v>8.2170000000000003E-3</v>
+        <v>1.867E-3</v>
       </c>
       <c r="G54">
         <f t="shared" si="0"/>
-        <v>3.6181818181818186E-5</v>
+        <v>2.4590909090909092E-5</v>
       </c>
       <c r="H54">
         <f t="shared" si="1"/>
-        <v>1.8312500000000001E-5</v>
+        <v>6.4034090909090909E-6</v>
       </c>
       <c r="I54">
         <f t="shared" si="2"/>
-        <v>4.5982954545454541E-5</v>
+        <v>1.4625E-5</v>
       </c>
       <c r="J54">
         <f t="shared" si="3"/>
-        <v>4.6687500000000003E-5</v>
+        <v>1.0607954545454545E-5</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -9094,32 +9084,32 @@
         <v>240</v>
       </c>
       <c r="B55">
-        <v>1.6559999999999998E-2</v>
+        <v>1.0869999999999999E-2</v>
       </c>
       <c r="C55">
-        <v>8.3750000000000005E-3</v>
+        <v>2.9350000000000001E-3</v>
       </c>
       <c r="D55">
-        <v>1.7389999999999999E-2</v>
+        <v>6.4359999999999999E-3</v>
       </c>
       <c r="E55">
-        <v>2.0729999999999998E-2</v>
+        <v>4.3629999999999997E-3</v>
       </c>
       <c r="G55">
         <f t="shared" si="0"/>
-        <v>6.8999999999999997E-5</v>
+        <v>4.5291666666666665E-5</v>
       </c>
       <c r="H55">
         <f t="shared" si="1"/>
-        <v>3.4895833333333332E-5</v>
+        <v>1.2229166666666666E-5</v>
       </c>
       <c r="I55">
         <f t="shared" si="2"/>
-        <v>7.2458333333333324E-5</v>
+        <v>2.6816666666666667E-5</v>
       </c>
       <c r="J55">
         <f t="shared" si="3"/>
-        <v>8.6374999999999999E-5</v>
+        <v>1.8179166666666667E-5</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -9127,32 +9117,32 @@
         <v>320</v>
       </c>
       <c r="B56">
-        <v>4.1779999999999998E-2</v>
+        <v>2.673E-2</v>
       </c>
       <c r="C56">
-        <v>1.8790000000000001E-2</v>
+        <v>7.1590000000000004E-3</v>
       </c>
       <c r="D56">
-        <v>3.4909999999999997E-2</v>
+        <v>1.511E-2</v>
       </c>
       <c r="E56">
-        <v>3.918E-2</v>
+        <v>1.022E-2</v>
       </c>
       <c r="G56">
         <f t="shared" si="0"/>
-        <v>1.3056249999999998E-4</v>
+        <v>8.3531250000000001E-5</v>
       </c>
       <c r="H56">
         <f t="shared" si="1"/>
-        <v>5.8718750000000001E-5</v>
+        <v>2.2371875E-5</v>
       </c>
       <c r="I56">
         <f t="shared" si="2"/>
-        <v>1.0909374999999999E-4</v>
+        <v>4.7218749999999999E-5</v>
       </c>
       <c r="J56">
         <f t="shared" si="3"/>
-        <v>1.2243749999999999E-4</v>
+        <v>3.1937499999999997E-5</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -9160,32 +9150,32 @@
         <v>416</v>
       </c>
       <c r="B57">
-        <v>9.4060000000000005E-2</v>
+        <v>5.9619999999999999E-2</v>
       </c>
       <c r="C57">
-        <v>3.5659999999999997E-2</v>
+        <v>1.5879999999999998E-2</v>
       </c>
       <c r="D57">
-        <v>6.2330000000000003E-2</v>
+        <v>3.2969999999999999E-2</v>
       </c>
       <c r="E57">
-        <v>0.1036</v>
+        <v>2.197E-2</v>
       </c>
       <c r="G57">
         <f t="shared" si="0"/>
-        <v>2.2610576923076924E-4</v>
+        <v>1.4331730769230768E-4</v>
       </c>
       <c r="H57">
         <f t="shared" si="1"/>
-        <v>8.5721153846153835E-5</v>
+        <v>3.8173076923076919E-5</v>
       </c>
       <c r="I57">
         <f t="shared" si="2"/>
-        <v>1.4983173076923078E-4</v>
+        <v>7.9254807692307686E-5</v>
       </c>
       <c r="J57">
         <f t="shared" si="3"/>
-        <v>2.4903846153846151E-4</v>
+        <v>5.2812500000000003E-5</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -9193,32 +9183,32 @@
         <v>528</v>
       </c>
       <c r="B58">
-        <v>0.1918</v>
+        <v>0.1221</v>
       </c>
       <c r="C58">
-        <v>5.7549999999999997E-2</v>
+        <v>3.2820000000000002E-2</v>
       </c>
       <c r="D58">
-        <v>0.10929999999999999</v>
+        <v>6.6140000000000004E-2</v>
       </c>
       <c r="E58">
-        <v>0.1404</v>
+        <v>4.4409999999999998E-2</v>
       </c>
       <c r="G58">
         <f t="shared" si="0"/>
-        <v>3.6325757575757575E-4</v>
+        <v>2.3125000000000001E-4</v>
       </c>
       <c r="H58">
         <f t="shared" si="1"/>
-        <v>1.0899621212121211E-4</v>
+        <v>6.2159090909090909E-5</v>
       </c>
       <c r="I58">
         <f t="shared" si="2"/>
-        <v>2.0700757575757575E-4</v>
+        <v>1.2526515151515153E-4</v>
       </c>
       <c r="J58">
         <f t="shared" si="3"/>
-        <v>2.659090909090909E-4</v>
+        <v>8.410984848484848E-5</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -9226,32 +9216,32 @@
         <v>656</v>
       </c>
       <c r="B59">
-        <v>0.37519999999999998</v>
+        <v>0.23699999999999999</v>
       </c>
       <c r="C59">
-        <v>0.12559999999999999</v>
+        <v>6.3710000000000003E-2</v>
       </c>
       <c r="D59">
-        <v>0.20619999999999999</v>
+        <v>0.1227</v>
       </c>
       <c r="E59">
-        <v>0.61619999999999997</v>
+        <v>8.1670000000000006E-2</v>
       </c>
       <c r="G59">
         <f t="shared" si="0"/>
-        <v>5.7195121951219511E-4</v>
+        <v>3.6128048780487804E-4</v>
       </c>
       <c r="H59">
         <f t="shared" si="1"/>
-        <v>1.9146341463414633E-4</v>
+        <v>9.7118902439024388E-5</v>
       </c>
       <c r="I59">
         <f t="shared" si="2"/>
-        <v>3.143292682926829E-4</v>
+        <v>1.8704268292682927E-4</v>
       </c>
       <c r="J59">
         <f t="shared" si="3"/>
-        <v>9.3932926829268292E-4</v>
+        <v>1.2449695121951221E-4</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -9259,37 +9249,37 @@
         <v>800</v>
       </c>
       <c r="B60">
-        <v>0.67959999999999998</v>
+        <v>0.43640000000000001</v>
       </c>
       <c r="C60">
-        <v>0.24049999999999999</v>
+        <v>0.1153</v>
       </c>
       <c r="D60">
-        <v>0.37119999999999997</v>
+        <v>0.22270000000000001</v>
       </c>
       <c r="E60">
-        <v>1.1140000000000001</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="G60">
         <f t="shared" si="0"/>
-        <v>8.4949999999999999E-4</v>
+        <v>5.4549999999999998E-4</v>
       </c>
       <c r="H60">
         <f t="shared" si="1"/>
-        <v>3.00625E-4</v>
+        <v>1.4412499999999999E-4</v>
       </c>
       <c r="I60">
         <f t="shared" si="2"/>
-        <v>4.6399999999999995E-4</v>
+        <v>2.7837500000000003E-4</v>
       </c>
       <c r="J60">
         <f t="shared" si="3"/>
-        <v>1.3925000000000001E-3</v>
+        <v>1.8249999999999999E-4</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -9303,7 +9293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45508B96-921E-9644-8E49-87868C4584F6}">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
+    <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="G50" sqref="G50:J60"/>
     </sheetView>
   </sheetViews>
@@ -9311,7 +9301,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -9554,28 +9544,28 @@
         <v>30</v>
       </c>
       <c r="B50" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" t="s">
         <v>39</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>40</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>41</v>
       </c>
-      <c r="E50" t="s">
-        <v>42</v>
-      </c>
       <c r="G50" t="s">
+        <v>38</v>
+      </c>
+      <c r="H50" t="s">
         <v>39</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>40</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>41</v>
-      </c>
-      <c r="J50" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -9583,32 +9573,32 @@
         <v>80</v>
       </c>
       <c r="B51">
-        <v>5.5179999999999997E-4</v>
+        <v>3.3320000000000002E-4</v>
       </c>
       <c r="C51">
-        <v>4.7239999999999999E-4</v>
+        <v>1.9469999999999999E-4</v>
       </c>
       <c r="D51">
-        <v>4.4440000000000001E-4</v>
+        <v>4.3350000000000002E-4</v>
       </c>
       <c r="E51">
-        <v>6.9870000000000002E-4</v>
+        <v>2.4679999999999998E-4</v>
       </c>
       <c r="G51">
         <f>B51/A51</f>
-        <v>6.8974999999999996E-6</v>
+        <v>4.1649999999999999E-6</v>
       </c>
       <c r="H51">
         <f>C51/A51</f>
-        <v>5.9050000000000002E-6</v>
+        <v>2.4337499999999998E-6</v>
       </c>
       <c r="I51">
         <f>D51/A51</f>
-        <v>5.5550000000000002E-6</v>
+        <v>5.4187500000000004E-6</v>
       </c>
       <c r="J51">
         <f>E51/A51</f>
-        <v>8.7337500000000009E-6</v>
+        <v>3.0849999999999997E-6</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -9616,32 +9606,32 @@
         <v>96</v>
       </c>
       <c r="B52">
-        <v>9.7710000000000006E-4</v>
+        <v>6.5510000000000004E-4</v>
       </c>
       <c r="C52">
-        <v>7.2329999999999996E-4</v>
+        <v>2.264E-4</v>
       </c>
       <c r="D52">
-        <v>7.4149999999999997E-4</v>
+        <v>6.6E-4</v>
       </c>
       <c r="E52">
-        <v>9.4039999999999998E-4</v>
+        <v>2.6719999999999999E-4</v>
       </c>
       <c r="G52">
         <f t="shared" ref="G52:G60" si="0">B52/A52</f>
-        <v>1.0178125E-5</v>
+        <v>6.8239583333333335E-6</v>
       </c>
       <c r="H52">
         <f t="shared" ref="H52:H60" si="1">C52/A52</f>
-        <v>7.5343749999999993E-6</v>
+        <v>2.3583333333333333E-6</v>
       </c>
       <c r="I52">
         <f t="shared" ref="I52:I60" si="2">D52/A52</f>
-        <v>7.7239583333333325E-6</v>
+        <v>6.8750000000000002E-6</v>
       </c>
       <c r="J52">
         <f t="shared" ref="J52:J60" si="3">E52/A52</f>
-        <v>9.7958333333333337E-6</v>
+        <v>2.7833333333333331E-6</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -9649,32 +9639,32 @@
         <v>128</v>
       </c>
       <c r="B53">
-        <v>2.4229999999999998E-3</v>
+        <v>1.7129999999999999E-3</v>
       </c>
       <c r="C53">
-        <v>1.4339999999999999E-3</v>
+        <v>5.9299999999999999E-4</v>
       </c>
       <c r="D53">
-        <v>1.6770000000000001E-3</v>
+        <v>1.5529999999999999E-3</v>
       </c>
       <c r="E53">
-        <v>2.0300000000000001E-3</v>
+        <v>5.3709999999999999E-4</v>
       </c>
       <c r="G53">
         <f t="shared" si="0"/>
-        <v>1.8929687499999998E-5</v>
+        <v>1.3382812499999999E-5</v>
       </c>
       <c r="H53">
         <f t="shared" si="1"/>
-        <v>1.1203125E-5</v>
+        <v>4.6328125E-6</v>
       </c>
       <c r="I53">
         <f t="shared" si="2"/>
-        <v>1.3101562500000001E-5</v>
+        <v>1.2132812499999999E-5</v>
       </c>
       <c r="J53">
         <f t="shared" si="3"/>
-        <v>1.5859375000000001E-5</v>
+        <v>4.1960937499999999E-6</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -9682,32 +9672,32 @@
         <v>176</v>
       </c>
       <c r="B54">
-        <v>6.3530000000000001E-3</v>
+        <v>4.3629999999999997E-3</v>
       </c>
       <c r="C54">
-        <v>3.4749999999999998E-3</v>
+        <v>1.214E-3</v>
       </c>
       <c r="D54">
-        <v>4.2100000000000002E-3</v>
+        <v>3.862E-3</v>
       </c>
       <c r="E54">
-        <v>5.0610000000000004E-3</v>
+        <v>1.2650000000000001E-3</v>
       </c>
       <c r="G54">
         <f t="shared" si="0"/>
-        <v>3.6096590909090913E-5</v>
+        <v>2.4789772727272725E-5</v>
       </c>
       <c r="H54">
         <f t="shared" si="1"/>
-        <v>1.9744318181818179E-5</v>
+        <v>6.8977272727272725E-6</v>
       </c>
       <c r="I54">
         <f t="shared" si="2"/>
-        <v>2.3920454545454547E-5</v>
+        <v>2.1943181818181817E-5</v>
       </c>
       <c r="J54">
         <f t="shared" si="3"/>
-        <v>2.875568181818182E-5</v>
+        <v>7.1875000000000002E-6</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -9715,32 +9705,32 @@
         <v>240</v>
       </c>
       <c r="B55">
-        <v>1.6539999999999999E-2</v>
+        <v>1.093E-2</v>
       </c>
       <c r="C55">
-        <v>8.5400000000000007E-3</v>
+        <v>3.042E-3</v>
       </c>
       <c r="D55">
-        <v>1.0489999999999999E-2</v>
+        <v>9.5460000000000007E-3</v>
       </c>
       <c r="E55">
-        <v>1.17E-2</v>
+        <v>3.1459999999999999E-3</v>
       </c>
       <c r="G55">
         <f t="shared" si="0"/>
-        <v>6.8916666666666657E-5</v>
+        <v>4.5541666666666671E-5</v>
       </c>
       <c r="H55">
         <f t="shared" si="1"/>
-        <v>3.5583333333333335E-5</v>
+        <v>1.2675E-5</v>
       </c>
       <c r="I55">
         <f t="shared" si="2"/>
-        <v>4.370833333333333E-5</v>
+        <v>3.9775000000000005E-5</v>
       </c>
       <c r="J55">
         <f t="shared" si="3"/>
-        <v>4.8749999999999999E-5</v>
+        <v>1.3108333333333333E-5</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -9748,32 +9738,32 @@
         <v>320</v>
       </c>
       <c r="B56">
-        <v>4.1489999999999999E-2</v>
+        <v>2.6550000000000001E-2</v>
       </c>
       <c r="C56">
-        <v>1.9009999999999999E-2</v>
+        <v>7.2659999999999999E-3</v>
       </c>
       <c r="D56">
-        <v>2.4660000000000001E-2</v>
+        <v>2.2419999999999999E-2</v>
       </c>
       <c r="E56">
-        <v>2.418E-2</v>
+        <v>7.3350000000000004E-3</v>
       </c>
       <c r="G56">
         <f t="shared" si="0"/>
-        <v>1.2965625E-4</v>
+        <v>8.2968750000000008E-5</v>
       </c>
       <c r="H56">
         <f t="shared" si="1"/>
-        <v>5.9406249999999997E-5</v>
+        <v>2.270625E-5</v>
       </c>
       <c r="I56">
         <f t="shared" si="2"/>
-        <v>7.706250000000001E-5</v>
+        <v>7.0062500000000002E-5</v>
       </c>
       <c r="J56">
         <f t="shared" si="3"/>
-        <v>7.55625E-5</v>
+        <v>2.2921875E-5</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -9781,32 +9771,32 @@
         <v>416</v>
       </c>
       <c r="B57">
-        <v>9.4119999999999995E-2</v>
+        <v>5.9049999999999998E-2</v>
       </c>
       <c r="C57">
-        <v>3.5819999999999998E-2</v>
+        <v>1.5959999999999998E-2</v>
       </c>
       <c r="D57">
-        <v>5.3600000000000002E-2</v>
+        <v>4.9140000000000003E-2</v>
       </c>
       <c r="E57">
-        <v>4.3409999999999997E-2</v>
+        <v>1.5980000000000001E-2</v>
       </c>
       <c r="G57">
         <f t="shared" si="0"/>
-        <v>2.2625E-4</v>
+        <v>1.4194711538461537E-4</v>
       </c>
       <c r="H57">
         <f t="shared" si="1"/>
-        <v>8.6105769230769227E-5</v>
+        <v>3.8365384615384615E-5</v>
       </c>
       <c r="I57">
         <f t="shared" si="2"/>
-        <v>1.2884615384615384E-4</v>
+        <v>1.1812500000000001E-4</v>
       </c>
       <c r="J57">
         <f t="shared" si="3"/>
-        <v>1.0435096153846153E-4</v>
+        <v>3.8413461538461542E-5</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -9814,32 +9804,32 @@
         <v>528</v>
       </c>
       <c r="B58">
-        <v>0.1918</v>
+        <v>0.1222</v>
       </c>
       <c r="C58">
-        <v>5.7729999999999997E-2</v>
+        <v>3.313E-2</v>
       </c>
       <c r="D58">
-        <v>0.109</v>
+        <v>9.7930000000000003E-2</v>
       </c>
       <c r="E58">
-        <v>6.9570000000000007E-2</v>
+        <v>3.2489999999999998E-2</v>
       </c>
       <c r="G58">
         <f t="shared" si="0"/>
-        <v>3.6325757575757575E-4</v>
+        <v>2.3143939393939394E-4</v>
       </c>
       <c r="H58">
         <f t="shared" si="1"/>
-        <v>1.0933712121212121E-4</v>
+        <v>6.2746212121212114E-5</v>
       </c>
       <c r="I58">
         <f t="shared" si="2"/>
-        <v>2.0643939393939393E-4</v>
+        <v>1.8547348484848487E-4</v>
       </c>
       <c r="J58">
         <f t="shared" si="3"/>
-        <v>1.3176136363636366E-4</v>
+        <v>6.1534090909090908E-5</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -9847,32 +9837,32 @@
         <v>656</v>
       </c>
       <c r="B59">
-        <v>0.37519999999999998</v>
+        <v>0.23649999999999999</v>
       </c>
       <c r="C59">
-        <v>9.6320000000000003E-2</v>
+        <v>6.4180000000000001E-2</v>
       </c>
       <c r="D59">
-        <v>0.20580000000000001</v>
+        <v>0.18340000000000001</v>
       </c>
       <c r="E59">
-        <v>0.12330000000000001</v>
+        <v>6.2039999999999998E-2</v>
       </c>
       <c r="G59">
         <f t="shared" si="0"/>
-        <v>5.7195121951219511E-4</v>
+        <v>3.6051829268292682E-4</v>
       </c>
       <c r="H59">
         <f t="shared" si="1"/>
-        <v>1.4682926829268292E-4</v>
+        <v>9.783536585365854E-5</v>
       </c>
       <c r="I59">
         <f t="shared" si="2"/>
-        <v>3.1371951219512199E-4</v>
+        <v>2.7957317073170734E-4</v>
       </c>
       <c r="J59">
         <f t="shared" si="3"/>
-        <v>1.8795731707317074E-4</v>
+        <v>9.4573170731707313E-5</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -9880,37 +9870,37 @@
         <v>800</v>
       </c>
       <c r="B60">
-        <v>0.68159999999999998</v>
+        <v>0.43519999999999998</v>
       </c>
       <c r="C60">
-        <v>0.17419999999999999</v>
+        <v>0.1166</v>
       </c>
       <c r="D60">
-        <v>0.37109999999999999</v>
+        <v>0.33189999999999997</v>
       </c>
       <c r="E60">
-        <v>0.2225</v>
+        <v>0.1114</v>
       </c>
       <c r="G60">
         <f t="shared" si="0"/>
-        <v>8.52E-4</v>
+        <v>5.44E-4</v>
       </c>
       <c r="H60">
         <f t="shared" si="1"/>
-        <v>2.1774999999999998E-4</v>
+        <v>1.4574999999999999E-4</v>
       </c>
       <c r="I60">
         <f t="shared" si="2"/>
-        <v>4.6387499999999999E-4</v>
+        <v>4.1487499999999999E-4</v>
       </c>
       <c r="J60">
         <f t="shared" si="3"/>
-        <v>2.78125E-4</v>
+        <v>1.3925E-4</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -9922,17 +9912,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F5FFED-6ACE-224F-A59D-ED9418F5E6A2}">
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:N152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="K126" sqref="K126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -10175,28 +10165,28 @@
         <v>30</v>
       </c>
       <c r="B50" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" t="s">
         <v>39</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>40</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>41</v>
       </c>
-      <c r="E50" t="s">
-        <v>42</v>
-      </c>
       <c r="G50" t="s">
+        <v>38</v>
+      </c>
+      <c r="H50" t="s">
         <v>39</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>40</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>41</v>
-      </c>
-      <c r="J50" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -10204,32 +10194,32 @@
         <v>80</v>
       </c>
       <c r="B51">
-        <v>5.5400000000000002E-4</v>
+        <v>4.0039999999999997E-4</v>
       </c>
       <c r="C51">
-        <v>7.4989999999999996E-3</v>
+        <v>2.055E-3</v>
       </c>
       <c r="D51">
-        <v>4.4260000000000002E-4</v>
+        <v>2.1010000000000001E-4</v>
       </c>
       <c r="E51">
-        <v>9.0390000000000002E-3</v>
+        <v>2.1189999999999998E-3</v>
       </c>
       <c r="G51">
         <f>B51/A51</f>
-        <v>6.9250000000000006E-6</v>
+        <v>5.0049999999999995E-6</v>
       </c>
       <c r="H51">
         <f>C51/A51</f>
-        <v>9.3737499999999995E-5</v>
+        <v>2.5687500000000001E-5</v>
       </c>
       <c r="I51">
         <f>D51/A51</f>
-        <v>5.5325E-6</v>
+        <v>2.6262500000000001E-6</v>
       </c>
       <c r="J51">
         <f>E51/A51</f>
-        <v>1.129875E-4</v>
+        <v>2.6487499999999997E-5</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -10237,32 +10227,32 @@
         <v>96</v>
       </c>
       <c r="B52">
-        <v>9.7490000000000001E-4</v>
+        <v>6.5859999999999996E-4</v>
       </c>
       <c r="C52">
-        <v>1.0489999999999999E-2</v>
+        <v>2.8530000000000001E-3</v>
       </c>
       <c r="D52">
-        <v>7.4209999999999999E-4</v>
+        <v>3.5349999999999997E-4</v>
       </c>
       <c r="E52">
-        <v>1.333E-2</v>
+        <v>3.0140000000000002E-3</v>
       </c>
       <c r="G52">
         <f t="shared" ref="G52:G60" si="0">B52/A52</f>
-        <v>1.0155208333333334E-5</v>
+        <v>6.8604166666666663E-6</v>
       </c>
       <c r="H52">
         <f t="shared" ref="H52:H60" si="1">C52/A52</f>
-        <v>1.0927083333333333E-4</v>
+        <v>2.9718750000000001E-5</v>
       </c>
       <c r="I52">
         <f t="shared" ref="I52:I60" si="2">D52/A52</f>
-        <v>7.7302083333333326E-6</v>
+        <v>3.6822916666666665E-6</v>
       </c>
       <c r="J52">
         <f t="shared" ref="J52:J60" si="3">E52/A52</f>
-        <v>1.3885416666666666E-4</v>
+        <v>3.1395833333333335E-5</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -10270,32 +10260,32 @@
         <v>128</v>
       </c>
       <c r="B53">
-        <v>2.431E-3</v>
+        <v>1.642E-3</v>
       </c>
       <c r="C53">
-        <v>1.7840000000000002E-2</v>
+        <v>5.2989999999999999E-3</v>
       </c>
       <c r="D53">
-        <v>1.6819999999999999E-3</v>
+        <v>8.0289999999999995E-4</v>
       </c>
       <c r="E53">
-        <v>2.383E-2</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="G53">
         <f t="shared" si="0"/>
-        <v>1.89921875E-5</v>
+        <v>1.2828125E-5</v>
       </c>
       <c r="H53">
         <f t="shared" si="1"/>
-        <v>1.3937500000000001E-4</v>
+        <v>4.1398437499999999E-5</v>
       </c>
       <c r="I53">
         <f t="shared" si="2"/>
-        <v>1.3140624999999999E-5</v>
+        <v>6.2726562499999996E-6</v>
       </c>
       <c r="J53">
         <f t="shared" si="3"/>
-        <v>1.86171875E-4</v>
+        <v>4.2968749999999998E-5</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -10303,32 +10293,32 @@
         <v>176</v>
       </c>
       <c r="B54">
-        <v>6.3470000000000002E-3</v>
+        <v>4.3509999999999998E-3</v>
       </c>
       <c r="C54">
-        <v>3.2009999999999997E-2</v>
+        <v>1.0789999999999999E-2</v>
       </c>
       <c r="D54">
-        <v>4.2220000000000001E-3</v>
+        <v>2.0219999999999999E-3</v>
       </c>
       <c r="E54">
-        <v>4.3180000000000003E-2</v>
+        <v>1.1050000000000001E-2</v>
       </c>
       <c r="G54">
         <f t="shared" si="0"/>
-        <v>3.6062500000000002E-5</v>
+        <v>2.4721590909090908E-5</v>
       </c>
       <c r="H54">
         <f t="shared" si="1"/>
-        <v>1.8187499999999999E-4</v>
+        <v>6.130681818181818E-5</v>
       </c>
       <c r="I54">
         <f t="shared" si="2"/>
-        <v>2.3988636363636365E-5</v>
+        <v>1.1488636363636363E-5</v>
       </c>
       <c r="J54">
         <f t="shared" si="3"/>
-        <v>2.4534090909090908E-4</v>
+        <v>6.2784090909090911E-5</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -10336,32 +10326,32 @@
         <v>240</v>
       </c>
       <c r="B55">
-        <v>1.6670000000000001E-2</v>
+        <v>1.09E-2</v>
       </c>
       <c r="C55">
-        <v>6.4159999999999995E-2</v>
+        <v>2.1930000000000002E-2</v>
       </c>
       <c r="D55">
-        <v>1.0489999999999999E-2</v>
+        <v>5.0949999999999997E-3</v>
       </c>
       <c r="E55">
-        <v>8.0210000000000004E-2</v>
+        <v>2.179E-2</v>
       </c>
       <c r="G55">
         <f t="shared" si="0"/>
-        <v>6.9458333333333332E-5</v>
+        <v>4.5416666666666668E-5</v>
       </c>
       <c r="H55">
         <f t="shared" si="1"/>
-        <v>2.6733333333333329E-4</v>
+        <v>9.1375000000000012E-5</v>
       </c>
       <c r="I55">
         <f t="shared" si="2"/>
-        <v>4.370833333333333E-5</v>
+        <v>2.1229166666666667E-5</v>
       </c>
       <c r="J55">
         <f t="shared" si="3"/>
-        <v>3.3420833333333333E-4</v>
+        <v>9.0791666666666674E-5</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -10369,32 +10359,32 @@
         <v>320</v>
       </c>
       <c r="B56">
-        <v>4.1529999999999997E-2</v>
+        <v>2.6939999999999999E-2</v>
       </c>
       <c r="C56">
-        <v>0.1153</v>
+        <v>4.3310000000000001E-2</v>
       </c>
       <c r="D56">
-        <v>2.4629999999999999E-2</v>
+        <v>1.2030000000000001E-2</v>
       </c>
       <c r="E56">
-        <v>0.15690000000000001</v>
+        <v>4.1619999999999997E-2</v>
       </c>
       <c r="G56">
         <f t="shared" si="0"/>
-        <v>1.2978124999999999E-4</v>
+        <v>8.4187499999999993E-5</v>
       </c>
       <c r="H56">
         <f t="shared" si="1"/>
-        <v>3.6031250000000001E-4</v>
+        <v>1.3534374999999999E-4</v>
       </c>
       <c r="I56">
         <f t="shared" si="2"/>
-        <v>7.6968749999999997E-5</v>
+        <v>3.7593750000000002E-5</v>
       </c>
       <c r="J56">
         <f t="shared" si="3"/>
-        <v>4.9031250000000008E-4</v>
+        <v>1.300625E-4</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -10402,32 +10392,32 @@
         <v>416</v>
       </c>
       <c r="B57">
-        <v>9.2829999999999996E-2</v>
+        <v>5.969E-2</v>
       </c>
       <c r="C57">
-        <v>0.2114</v>
+        <v>8.1549999999999997E-2</v>
       </c>
       <c r="D57">
-        <v>5.3539999999999997E-2</v>
+        <v>2.6259999999999999E-2</v>
       </c>
       <c r="E57">
-        <v>0.26069999999999999</v>
+        <v>7.7640000000000001E-2</v>
       </c>
       <c r="G57">
         <f t="shared" si="0"/>
-        <v>2.2314903846153844E-4</v>
+        <v>1.4348557692307691E-4</v>
       </c>
       <c r="H57">
         <f t="shared" si="1"/>
-        <v>5.0817307692307696E-4</v>
+        <v>1.9603365384615384E-4</v>
       </c>
       <c r="I57">
         <f t="shared" si="2"/>
-        <v>1.2870192307692306E-4</v>
+        <v>6.3125000000000003E-5</v>
       </c>
       <c r="J57">
         <f t="shared" si="3"/>
-        <v>6.2668269230769223E-4</v>
+        <v>1.8663461538461539E-4</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -10435,32 +10425,32 @@
         <v>528</v>
       </c>
       <c r="B58">
-        <v>0.18990000000000001</v>
+        <v>0.12230000000000001</v>
       </c>
       <c r="C58">
-        <v>0.34460000000000002</v>
+        <v>0.1489</v>
       </c>
       <c r="D58">
-        <v>0.1084</v>
+        <v>5.2470000000000003E-2</v>
       </c>
       <c r="E58">
-        <v>0.46260000000000001</v>
+        <v>0.13619999999999999</v>
       </c>
       <c r="G58">
         <f t="shared" si="0"/>
-        <v>3.5965909090909093E-4</v>
+        <v>2.316287878787879E-4</v>
       </c>
       <c r="H58">
         <f t="shared" si="1"/>
-        <v>6.5265151515151516E-4</v>
+        <v>2.8200757575757576E-4</v>
       </c>
       <c r="I58">
         <f t="shared" si="2"/>
-        <v>2.0530303030303029E-4</v>
+        <v>9.9375000000000003E-5</v>
       </c>
       <c r="J58">
         <f t="shared" si="3"/>
-        <v>8.7613636363636366E-4</v>
+        <v>2.5795454545454543E-4</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -10468,32 +10458,32 @@
         <v>656</v>
       </c>
       <c r="B59">
-        <v>0.37159999999999999</v>
+        <v>0.23630000000000001</v>
       </c>
       <c r="C59">
-        <v>0.57299999999999995</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="D59">
-        <v>0.2049</v>
+        <v>9.7250000000000003E-2</v>
       </c>
       <c r="E59">
-        <v>0.76080000000000003</v>
+        <v>0.22650000000000001</v>
       </c>
       <c r="G59">
         <f t="shared" si="0"/>
-        <v>5.6646341463414637E-4</v>
+        <v>3.6021341463414637E-4</v>
       </c>
       <c r="H59">
         <f t="shared" si="1"/>
-        <v>8.7347560975609747E-4</v>
+        <v>3.9176829268292685E-4</v>
       </c>
       <c r="I59">
         <f t="shared" si="2"/>
-        <v>3.1234756097560975E-4</v>
+        <v>1.4824695121951219E-4</v>
       </c>
       <c r="J59">
         <f t="shared" si="3"/>
-        <v>1.1597560975609756E-3</v>
+        <v>3.4527439024390247E-4</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -10501,38 +10491,178 @@
         <v>800</v>
       </c>
       <c r="B60">
-        <v>0.67400000000000004</v>
+        <v>0.4355</v>
       </c>
       <c r="C60">
-        <v>0.94669999999999999</v>
+        <v>0.43049999999999999</v>
       </c>
       <c r="D60">
-        <v>0.36909999999999998</v>
+        <v>0.17449999999999999</v>
       </c>
       <c r="E60">
-        <v>1.288</v>
+        <v>0.36030000000000001</v>
       </c>
       <c r="G60">
         <f t="shared" si="0"/>
-        <v>8.4250000000000004E-4</v>
+        <v>5.4437500000000005E-4</v>
       </c>
       <c r="H60">
         <f t="shared" si="1"/>
-        <v>1.183375E-3</v>
+        <v>5.3812499999999997E-4</v>
       </c>
       <c r="I60">
         <f t="shared" si="2"/>
-        <v>4.6137499999999998E-4</v>
+        <v>2.1812499999999998E-4</v>
       </c>
       <c r="J60">
         <f t="shared" si="3"/>
-        <v>1.6100000000000001E-3</v>
+        <v>4.5037500000000004E-4</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>37</v>
-      </c>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="133" spans="9:14">
+      <c r="I133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+      <c r="N133" s="1"/>
+    </row>
+    <row r="134" spans="9:14">
+      <c r="I134" s="1"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="1"/>
+      <c r="N134" s="1"/>
+    </row>
+    <row r="135" spans="9:14">
+      <c r="I135" s="1"/>
+      <c r="K135" s="1"/>
+      <c r="L135" s="1"/>
+      <c r="M135" s="1"/>
+      <c r="N135" s="1"/>
+    </row>
+    <row r="136" spans="9:14">
+      <c r="I136" s="1"/>
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="M136" s="1"/>
+      <c r="N136" s="1"/>
+    </row>
+    <row r="137" spans="9:14">
+      <c r="I137" s="1"/>
+      <c r="K137" s="1"/>
+      <c r="L137" s="1"/>
+      <c r="M137" s="1"/>
+      <c r="N137" s="1"/>
+    </row>
+    <row r="138" spans="9:14">
+      <c r="I138" s="1"/>
+      <c r="K138" s="1"/>
+      <c r="L138" s="1"/>
+      <c r="M138" s="1"/>
+      <c r="N138" s="1"/>
+    </row>
+    <row r="139" spans="9:14">
+      <c r="I139" s="1"/>
+      <c r="K139" s="1"/>
+      <c r="L139" s="1"/>
+      <c r="M139" s="1"/>
+      <c r="N139" s="1"/>
+    </row>
+    <row r="140" spans="9:14">
+      <c r="I140" s="1"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+      <c r="N140" s="1"/>
+    </row>
+    <row r="141" spans="9:14">
+      <c r="I141" s="1"/>
+      <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
+      <c r="M141" s="1"/>
+      <c r="N141" s="1"/>
+    </row>
+    <row r="142" spans="9:14">
+      <c r="I142" s="1"/>
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1"/>
+      <c r="N142" s="1"/>
+    </row>
+    <row r="143" spans="9:14">
+      <c r="I143" s="1"/>
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="M143" s="1"/>
+      <c r="N143" s="1"/>
+    </row>
+    <row r="144" spans="9:14">
+      <c r="I144" s="1"/>
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+      <c r="N144" s="1"/>
+    </row>
+    <row r="145" spans="9:14">
+      <c r="I145" s="1"/>
+      <c r="K145" s="1"/>
+      <c r="L145" s="1"/>
+      <c r="M145" s="1"/>
+      <c r="N145" s="1"/>
+    </row>
+    <row r="146" spans="9:14">
+      <c r="I146" s="1"/>
+      <c r="K146" s="1"/>
+      <c r="L146" s="1"/>
+      <c r="M146" s="1"/>
+      <c r="N146" s="1"/>
+    </row>
+    <row r="147" spans="9:14">
+      <c r="I147" s="1"/>
+      <c r="K147" s="1"/>
+      <c r="L147" s="1"/>
+      <c r="M147" s="1"/>
+      <c r="N147" s="1"/>
+    </row>
+    <row r="148" spans="9:14">
+      <c r="I148" s="1"/>
+      <c r="K148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="M148" s="1"/>
+      <c r="N148" s="1"/>
+    </row>
+    <row r="149" spans="9:14">
+      <c r="I149" s="1"/>
+      <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="M149" s="1"/>
+      <c r="N149" s="1"/>
+    </row>
+    <row r="150" spans="9:14">
+      <c r="I150" s="1"/>
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1"/>
+      <c r="N150" s="1"/>
+    </row>
+    <row r="151" spans="9:14">
+      <c r="I151" s="1"/>
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+      <c r="N151" s="1"/>
+    </row>
+    <row r="152" spans="9:14">
+      <c r="I152" s="1"/>
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
+      <c r="N152" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
